--- a/document/機能/機能設計書.xlsx
+++ b/document/機能/機能設計書.xlsx
@@ -22,13 +22,14 @@
     <sheet name="シーケンス図(F1-6-2)" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="シーケンス図(F1-6-3)" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="シーケンス図(F1-8-1)" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="シーケンス図(F2-1-1)" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="シーケンス図(F2-2-1)" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="シーケンス図(F2-2-2)" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="シーケンス図(F2-2-3)" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="シーケンス図(F2-3-1)" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="シーケンス図(F2-4-1)" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="シーケンス図(F2-5-1)" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="シーケンス図(F1-8-2)" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="シーケンス図(F2-1-1)" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="シーケンス図(F2-2-1)" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="シーケンス図(F2-2-2)" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="シーケンス図(F2-2-3)" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="シーケンス図(F2-3-1)" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="シーケンス図(F2-4-1)" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="シーケンス図(F2-5-1)" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="203">
   <si>
     <t xml:space="preserve">作成日</t>
   </si>
@@ -226,7 +227,7 @@
     <t xml:space="preserve">ユーザ認証機能</t>
   </si>
   <si>
-    <t xml:space="preserve">ログイン</t>
+    <t xml:space="preserve">認証</t>
   </si>
   <si>
     <t xml:space="preserve">画面</t>
@@ -245,6 +246,15 @@
   </si>
   <si>
     <t xml:space="preserve">LoginForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1-1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginServlet</t>
   </si>
   <si>
     <t xml:space="preserve">ログアウト</t>
@@ -305,6 +315,15 @@
   </si>
   <si>
     <t xml:space="preserve">UserUpdateForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情報閲覧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1-2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DispUserInfoServlet</t>
   </si>
   <si>
     <t xml:space="preserve">メニュー機能</t>
@@ -443,7 +462,19 @@
     <t xml:space="preserve">AdminLoginForm</t>
   </si>
   <si>
+    <t xml:space="preserve">F2-1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdminLoginServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2-1-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">LogoutAdminServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuAdminServlet</t>
   </si>
   <si>
     <t xml:space="preserve">F2-2-1</t>
@@ -642,6 +673,9 @@
   </si>
   <si>
     <t xml:space="preserve">【 機能ID: F1-8-1 】購入履歴一覧表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【 機能ID: F1-8-2 】購入履歴非表示機能</t>
   </si>
   <si>
     <t xml:space="preserve">【 機能ID: F2-1-1 】 ログイン機能</t>
@@ -1168,6 +1202,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1178,10 +1216,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1395,9 +1429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>124200</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1407,7 +1441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10468440" y="1962000"/>
-          <a:ext cx="4968720" cy="10302840"/>
+          <a:ext cx="4968000" cy="10302120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1485,9 +1519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>296280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1497,7 +1531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10797120" y="6467400"/>
-          <a:ext cx="4502160" cy="4863960"/>
+          <a:ext cx="4501440" cy="4863240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,9 +1559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>277920</xdr:colOff>
+      <xdr:colOff>277200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1537,7 +1571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10797120" y="6467400"/>
-          <a:ext cx="4483080" cy="586080"/>
+          <a:ext cx="4482360" cy="585360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,9 +1657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>268560</xdr:colOff>
+      <xdr:colOff>267840</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1635,7 +1669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10806840" y="8834400"/>
-          <a:ext cx="4464000" cy="2496960"/>
+          <a:ext cx="4463280" cy="2496240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,9 +1945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>296280</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1923,7 +1957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10816200" y="7161480"/>
-          <a:ext cx="4483080" cy="1555920"/>
+          <a:ext cx="4482360" cy="1555200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,9 +2113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2091,7 +2125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10806840" y="2523960"/>
-          <a:ext cx="2797200" cy="3549600"/>
+          <a:ext cx="2796480" cy="3548880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2119,9 +2153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2131,7 +2165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10806840" y="2523960"/>
-          <a:ext cx="2778120" cy="531720"/>
+          <a:ext cx="2777400" cy="531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2217,9 +2251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2229,7 +2263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10825920" y="4128480"/>
-          <a:ext cx="2778120" cy="1945080"/>
+          <a:ext cx="2777400" cy="1944360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2395,9 +2429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>199440</xdr:colOff>
+      <xdr:colOff>198720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2407,7 +2441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10806840" y="3144960"/>
-          <a:ext cx="2749680" cy="875520"/>
+          <a:ext cx="2748960" cy="874800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2503,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>290880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2515,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="95400" y="1218960"/>
-          <a:ext cx="5626080" cy="6521400"/>
+          <a:ext cx="5625360" cy="6520680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2583,9 +2617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2595,7 +2629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="2876400"/>
-          <a:ext cx="3340080" cy="1187280"/>
+          <a:ext cx="3339360" cy="1186560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2623,9 +2657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2635,7 +2669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="2876400"/>
-          <a:ext cx="3340080" cy="387360"/>
+          <a:ext cx="3339360" cy="386640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2731,9 +2765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2743,7 +2777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="3419280"/>
-          <a:ext cx="3340080" cy="644400"/>
+          <a:ext cx="3339360" cy="643680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2839,9 +2873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2851,7 +2885,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="3304800"/>
-          <a:ext cx="3340080" cy="73080"/>
+          <a:ext cx="3339360" cy="72360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2884,9 +2918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2896,7 +2930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="4219560"/>
-          <a:ext cx="3321000" cy="1063440"/>
+          <a:ext cx="3320280" cy="1062720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2924,9 +2958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2936,7 +2970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="4219560"/>
-          <a:ext cx="3321000" cy="358560"/>
+          <a:ext cx="3320280" cy="357840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3022,9 +3056,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3034,7 +3068,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="4705200"/>
-          <a:ext cx="3321000" cy="577800"/>
+          <a:ext cx="3320280" cy="577080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3130,9 +3164,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3142,7 +3176,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="4610160"/>
-          <a:ext cx="3321000" cy="82440"/>
+          <a:ext cx="3320280" cy="81720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3175,9 +3209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3187,7 +3221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="5429160"/>
-          <a:ext cx="3340080" cy="1139760"/>
+          <a:ext cx="3339360" cy="1139040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3215,9 +3249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3227,7 +3261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="5429160"/>
-          <a:ext cx="3340080" cy="355680"/>
+          <a:ext cx="3339360" cy="354960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3323,9 +3357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3335,7 +3369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="5948640"/>
-          <a:ext cx="3340080" cy="620280"/>
+          <a:ext cx="3339360" cy="619560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3431,9 +3465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3443,7 +3477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="405000" y="5835240"/>
-          <a:ext cx="3340080" cy="43920"/>
+          <a:ext cx="3339360" cy="43200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3476,9 +3510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3488,7 +3522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3880080" y="9553680"/>
-          <a:ext cx="5102280" cy="2368440"/>
+          <a:ext cx="5101560" cy="2367720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3516,9 +3550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3528,7 +3562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3880080" y="9553680"/>
-          <a:ext cx="5102280" cy="2368440"/>
+          <a:ext cx="5101560" cy="2367720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3596,9 +3630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3608,7 +3642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4108320" y="10048680"/>
-          <a:ext cx="4446000" cy="415800"/>
+          <a:ext cx="4445280" cy="415080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3694,9 +3728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3706,7 +3740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4108320" y="10572840"/>
-          <a:ext cx="4446000" cy="815760"/>
+          <a:ext cx="4445280" cy="815040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3812,9 +3846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3824,7 +3858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4108320" y="10496520"/>
-          <a:ext cx="4446000" cy="44280"/>
+          <a:ext cx="4445280" cy="43560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3857,9 +3891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>296640</xdr:colOff>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3869,7 +3903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4829040" y="1285560"/>
-          <a:ext cx="5369040" cy="8130960"/>
+          <a:ext cx="5368320" cy="8130240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3937,9 +3971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>170640</xdr:colOff>
+      <xdr:colOff>169920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3949,7 +3983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6716520" y="3895560"/>
-          <a:ext cx="2397240" cy="2273400"/>
+          <a:ext cx="2396520" cy="2272680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4002,9 +4036,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4014,7 +4048,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6344640" y="1685880"/>
-          <a:ext cx="2597040" cy="1406520"/>
+          <a:ext cx="2596320" cy="1405800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4042,9 +4076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4054,7 +4088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6344640" y="1685880"/>
-          <a:ext cx="2597040" cy="368280"/>
+          <a:ext cx="2596320" cy="367560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4140,9 +4174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4152,7 +4186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6344640" y="2495520"/>
-          <a:ext cx="2597040" cy="596880"/>
+          <a:ext cx="2596320" cy="596160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4238,9 +4272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4250,7 +4284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6344640" y="2104920"/>
-          <a:ext cx="2597040" cy="358560"/>
+          <a:ext cx="2596320" cy="357840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4306,9 +4340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4318,7 +4352,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5601240" y="6114960"/>
-          <a:ext cx="4244760" cy="2987640"/>
+          <a:ext cx="4244040" cy="2986920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4346,9 +4380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4358,7 +4392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5639400" y="6114960"/>
-          <a:ext cx="4206960" cy="358560"/>
+          <a:ext cx="4206240" cy="357840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4444,9 +4478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4456,7 +4490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5601240" y="6743520"/>
-          <a:ext cx="4244760" cy="2359080"/>
+          <a:ext cx="4244040" cy="2358360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4732,9 +4766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4744,7 +4778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5639400" y="6562440"/>
-          <a:ext cx="4206960" cy="92160"/>
+          <a:ext cx="4206240" cy="91440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4777,9 +4811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>269280</xdr:colOff>
+      <xdr:colOff>268560</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4789,7 +4823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5138640" y="4133880"/>
-          <a:ext cx="3435120" cy="1644480"/>
+          <a:ext cx="3434400" cy="1643760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4817,9 +4851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>269280</xdr:colOff>
+      <xdr:colOff>268560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4829,7 +4863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5138640" y="4133880"/>
-          <a:ext cx="3435120" cy="413280"/>
+          <a:ext cx="3434400" cy="412560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4915,9 +4949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4927,7 +4961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5138640" y="4777920"/>
-          <a:ext cx="3425760" cy="1000440"/>
+          <a:ext cx="3425040" cy="999720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5003,9 +5037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>269280</xdr:colOff>
+      <xdr:colOff>268560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5015,7 +5049,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5138640" y="4597920"/>
-          <a:ext cx="3435120" cy="119880"/>
+          <a:ext cx="3434400" cy="119160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5048,9 +5082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>187200</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5060,7 +5094,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8137080" y="3257280"/>
-          <a:ext cx="34920" cy="635040"/>
+          <a:ext cx="34200" cy="634320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5104,9 +5138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5116,7 +5150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8032320" y="3105000"/>
-          <a:ext cx="244440" cy="168120"/>
+          <a:ext cx="243720" cy="167400"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -5151,9 +5185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5163,7 +5197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="433800" y="1704960"/>
-          <a:ext cx="3321000" cy="1063440"/>
+          <a:ext cx="3320280" cy="1062720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5191,9 +5225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5203,7 +5237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="433800" y="1704960"/>
-          <a:ext cx="3321000" cy="358560"/>
+          <a:ext cx="3320280" cy="357840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5289,9 +5323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5301,7 +5335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="433800" y="2190600"/>
-          <a:ext cx="3321000" cy="577800"/>
+          <a:ext cx="3320280" cy="577080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5397,9 +5431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5409,7 +5443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="433800" y="2095560"/>
-          <a:ext cx="3321000" cy="82440"/>
+          <a:ext cx="3320280" cy="81720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5447,9 +5481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>418680</xdr:colOff>
+      <xdr:colOff>417960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5463,7 +5497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1635120"/>
-          <a:ext cx="5295600" cy="4629600"/>
+          <a:ext cx="5294880" cy="4628880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5489,9 +5523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
+      <xdr:colOff>121680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5505,7 +5539,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1635120"/>
-          <a:ext cx="5812200" cy="4375800"/>
+          <a:ext cx="5811480" cy="4375080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5531,9 +5565,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
+      <xdr:colOff>537120</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5547,7 +5581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1810080"/>
-          <a:ext cx="9478800" cy="6022440"/>
+          <a:ext cx="9478080" cy="6021720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5567,19 +5601,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>566280</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="画像 2" descr=""/>
+        <xdr:cNvPr id="58" name="画像 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5588,8 +5622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="852120" y="1810080"/>
-          <a:ext cx="6660360" cy="6098400"/>
+          <a:off x="812520" y="1635120"/>
+          <a:ext cx="5443200" cy="4176360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5609,19 +5643,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>39600</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:colOff>196560</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="画像 9" descr=""/>
+        <xdr:cNvPr id="59" name="画像 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5630,8 +5664,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812520" y="1635120"/>
-          <a:ext cx="6749640" cy="6425280"/>
+          <a:off x="852120" y="1810080"/>
+          <a:ext cx="6659640" cy="6097680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5650,20 +5684,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>658800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>192600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="画像 8" descr=""/>
+        <xdr:cNvPr id="60" name="画像 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5672,8 +5706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="658800" y="1623960"/>
-          <a:ext cx="4410360" cy="3543480"/>
+          <a:off x="812520" y="1635120"/>
+          <a:ext cx="6748920" cy="6424560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5692,20 +5726,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>658800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>356040</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="画像 14" descr=""/>
+        <xdr:cNvPr id="61" name="画像 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5714,8 +5748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812520" y="1635120"/>
-          <a:ext cx="6858720" cy="5927760"/>
+          <a:off x="658800" y="1623960"/>
+          <a:ext cx="4409640" cy="3542760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5735,19 +5769,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355320</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="画像 12" descr=""/>
+        <xdr:cNvPr id="62" name="画像 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5756,8 +5790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="878400" y="1551600"/>
-          <a:ext cx="7337160" cy="5443920"/>
+          <a:off x="812520" y="1635120"/>
+          <a:ext cx="6858000" cy="5927040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5777,19 +5811,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>623160</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>87120</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="画像 16" descr=""/>
+        <xdr:cNvPr id="63" name="画像 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5798,8 +5832,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="960480" y="1522080"/>
-          <a:ext cx="6977880" cy="5783040"/>
+          <a:off x="878400" y="1551600"/>
+          <a:ext cx="7336440" cy="5443200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5819,19 +5853,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>560160</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622440</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="画像 10" descr=""/>
+        <xdr:cNvPr id="64" name="画像 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5840,8 +5874,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812520" y="1635120"/>
-          <a:ext cx="4624200" cy="3543480"/>
+          <a:off x="960480" y="1522080"/>
+          <a:ext cx="6977160" cy="5782320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5867,9 +5901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>800280</xdr:colOff>
+      <xdr:colOff>799560</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5883,7 +5917,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="802800" y="1648440"/>
-          <a:ext cx="7312680" cy="4784760"/>
+          <a:ext cx="7311960" cy="4784040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>559440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="画像 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812520" y="1635120"/>
+          <a:ext cx="4623480" cy="3542760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5909,9 +5985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5925,7 +6001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1810080"/>
-          <a:ext cx="9482760" cy="6932160"/>
+          <a:ext cx="9482040" cy="6931440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5951,9 +6027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>428040</xdr:colOff>
+      <xdr:colOff>427320</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5967,7 +6043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="834120" y="1562760"/>
-          <a:ext cx="4470480" cy="4821840"/>
+          <a:ext cx="4469760" cy="4821120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5993,9 +6069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:colOff>85320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6009,7 +6085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1635120"/>
-          <a:ext cx="6588720" cy="5602680"/>
+          <a:ext cx="6588000" cy="5601960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6035,9 +6111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
+      <xdr:colOff>494280</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6051,7 +6127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1635120"/>
-          <a:ext cx="9435960" cy="5404320"/>
+          <a:ext cx="9435240" cy="5403600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6077,9 +6153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>482400</xdr:colOff>
+      <xdr:colOff>481680</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6093,7 +6169,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274680" y="1635120"/>
-          <a:ext cx="9148320" cy="5461560"/>
+          <a:ext cx="9147600" cy="5460840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6119,9 +6195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6135,7 +6211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1635120"/>
-          <a:ext cx="7354440" cy="5783040"/>
+          <a:ext cx="7353720" cy="5782320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6161,9 +6237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>753480</xdr:colOff>
+      <xdr:colOff>752760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6177,7 +6253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="922680" y="1635120"/>
-          <a:ext cx="5520240" cy="4818960"/>
+          <a:ext cx="5519520" cy="4818240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9696,7 +9772,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -9736,7 +9812,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -9771,7 +9847,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -9923,7 +9999,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -10004,7 +10080,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -10044,7 +10120,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -10079,7 +10155,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -10231,7 +10307,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -10312,7 +10388,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -10352,7 +10428,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -10387,7 +10463,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -10539,7 +10615,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -10620,7 +10696,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -10660,7 +10736,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -10695,7 +10771,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -10847,7 +10923,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -10928,7 +11004,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -10968,7 +11044,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -11003,7 +11079,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -11155,7 +11231,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11225,8 +11301,8 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11236,7 +11312,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -11276,7 +11352,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -11311,7 +11387,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -11463,7 +11539,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11534,7 +11610,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11544,7 +11620,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -11584,7 +11660,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -11619,7 +11695,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -11771,7 +11847,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11842,7 +11918,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11852,7 +11928,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -11892,7 +11968,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -11927,7 +12003,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -12079,7 +12155,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12150,7 +12226,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12160,7 +12236,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -12200,7 +12276,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -12235,7 +12311,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -12387,7 +12463,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12457,8 +12533,8 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12468,7 +12544,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -12508,7 +12584,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -12543,7 +12619,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -12695,7 +12771,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12763,10 +12839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13164,9 +13240,7 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
-      <c r="K11" s="46" t="s">
-        <v>56</v>
-      </c>
+      <c r="K11" s="46"/>
       <c r="L11" s="46"/>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
@@ -13185,31 +13259,25 @@
     </row>
     <row r="12" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="46"/>
-      <c r="B12" s="39" t="s">
-        <v>57</v>
-      </c>
+      <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>62</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="37"/>
@@ -13229,30 +13297,34 @@
     </row>
     <row r="13" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="B13" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="C13" s="39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46"/>
+        <v>63</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>65</v>
+      </c>
       <c r="J13" s="46"/>
       <c r="K13" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="46"/>
-      <c r="M13" s="37" t="s">
-        <v>68</v>
-      </c>
+      <c r="M13" s="37"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
@@ -13269,28 +13341,30 @@
     </row>
     <row r="14" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="46"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L14" s="46"/>
-      <c r="M14" s="37"/>
+      <c r="M14" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
@@ -13307,27 +13381,25 @@
     </row>
     <row r="15" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="46"/>
-      <c r="B15" s="39" t="s">
-        <v>73</v>
-      </c>
+      <c r="B15" s="48"/>
       <c r="C15" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="37"/>
@@ -13347,28 +13419,24 @@
     </row>
     <row r="16" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="46"/>
-      <c r="B16" s="39" t="s">
-        <v>77</v>
-      </c>
+      <c r="B16" s="48"/>
       <c r="C16" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="46"/>
+        <v>77</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="47"/>
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
-      <c r="K16" s="46" t="s">
-        <v>56</v>
-      </c>
+      <c r="K16" s="46"/>
       <c r="L16" s="46"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
@@ -13387,25 +13455,27 @@
     </row>
     <row r="17" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="46"/>
-      <c r="B17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="C17" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L17" s="46"/>
       <c r="M17" s="37"/>
@@ -13426,26 +13496,26 @@
     <row r="18" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="46"/>
       <c r="B18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>84</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>85</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="L18" s="46"/>
       <c r="M18" s="37"/>
@@ -13465,27 +13535,25 @@
     </row>
     <row r="19" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="46"/>
-      <c r="B19" s="39" t="s">
-        <v>89</v>
-      </c>
+      <c r="B19" s="39"/>
       <c r="C19" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="46" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="37"/>
@@ -13505,25 +13573,27 @@
     </row>
     <row r="20" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="C20" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L20" s="46"/>
       <c r="M20" s="37"/>
@@ -13543,25 +13613,27 @@
     </row>
     <row r="21" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="46"/>
-      <c r="B21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>95</v>
+      </c>
       <c r="C21" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L21" s="46"/>
       <c r="M21" s="37"/>
@@ -13581,27 +13653,25 @@
     </row>
     <row r="22" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="46"/>
-      <c r="B22" s="39" t="s">
-        <v>102</v>
-      </c>
+      <c r="B22" s="39"/>
       <c r="C22" s="39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
       <c r="K22" s="46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="37"/>
@@ -13621,27 +13691,25 @@
     </row>
     <row r="23" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="46"/>
-      <c r="B23" s="39" t="s">
-        <v>107</v>
-      </c>
+      <c r="B23" s="39"/>
       <c r="C23" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
       <c r="K23" s="46" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="L23" s="46"/>
       <c r="M23" s="37"/>
@@ -13661,25 +13729,27 @@
     </row>
     <row r="24" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="C24" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="46" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="37"/>
@@ -13698,14 +13768,12 @@
       <c r="Z24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>114</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>46</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>47</v>
@@ -13713,19 +13781,15 @@
       <c r="E25" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="49"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="46" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="37"/>
@@ -13744,26 +13808,26 @@
       <c r="Z25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47" t="s">
         <v>118</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39" t="s">
+        <v>119</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L26" s="46"/>
       <c r="M26" s="37"/>
@@ -13782,28 +13846,34 @@
       <c r="Z26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49" t="s">
+        <v>120</v>
+      </c>
       <c r="B27" s="39" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
+        <v>122</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="50"/>
       <c r="K27" s="46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L27" s="46"/>
       <c r="M27" s="37"/>
@@ -13822,27 +13892,25 @@
       <c r="Z27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="46" t="s">
-        <v>124</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="46"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
@@ -13860,26 +13928,26 @@
       <c r="Z28" s="37"/>
     </row>
     <row r="29" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+        <v>127</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
       <c r="K29" s="46" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="L29" s="46"/>
       <c r="M29" s="37"/>
@@ -13898,29 +13966,27 @@
       <c r="Z29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48"/>
-      <c r="B30" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>58</v>
+      <c r="A30" s="49"/>
+      <c r="B30" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="53"/>
+        <v>81</v>
+      </c>
+      <c r="F30" s="47"/>
       <c r="G30" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="46" t="s">
-        <v>56</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="L30" s="46"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
@@ -13938,16 +14004,26 @@
       <c r="Z30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="46" t="s">
         <v>131</v>
       </c>
@@ -13968,12 +14044,27 @@
       <c r="Z31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="46" t="s">
+        <v>134</v>
+      </c>
       <c r="L32" s="46"/>
       <c r="M32" s="37"/>
       <c r="N32" s="37"/>
@@ -13991,28 +14082,26 @@
       <c r="Z32" s="37"/>
     </row>
     <row r="33" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>69</v>
+      <c r="A33" s="49"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="39"/>
+        <v>135</v>
+      </c>
+      <c r="F33" s="47"/>
       <c r="G33" s="47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H33" s="47"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
       <c r="K33" s="46" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="L33" s="46"/>
       <c r="M33" s="37"/>
@@ -14031,18 +14120,28 @@
       <c r="Z33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="47"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="47" t="s">
+        <v>140</v>
+      </c>
       <c r="H34" s="47"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
       <c r="K34" s="46" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="L34" s="46"/>
       <c r="M34" s="37"/>
@@ -14061,12 +14160,19 @@
       <c r="Z34" s="37"/>
     </row>
     <row r="35" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="48"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="47"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="46" t="s">
+        <v>141</v>
+      </c>
       <c r="L35" s="46"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
@@ -14084,26 +14190,11 @@
       <c r="Z35" s="37"/>
     </row>
     <row r="36" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="48"/>
-      <c r="B36" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="47" t="s">
-        <v>138</v>
-      </c>
+      <c r="A36" s="49"/>
+      <c r="B36" s="48"/>
       <c r="H36" s="47"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
       <c r="K36" s="46"/>
       <c r="L36" s="46"/>
       <c r="M36" s="37"/>
@@ -14122,18 +14213,28 @@
       <c r="Z36" s="37"/>
     </row>
     <row r="37" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>143</v>
+      </c>
       <c r="F37" s="39"/>
-      <c r="G37" s="47"/>
+      <c r="G37" s="47" t="s">
+        <v>144</v>
+      </c>
       <c r="H37" s="47"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
       <c r="K37" s="46" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="L37" s="46"/>
       <c r="M37" s="37"/>
@@ -14152,12 +14253,19 @@
       <c r="Z37" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="48"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="47"/>
       <c r="H38" s="47"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="46" t="s">
+        <v>145</v>
+      </c>
       <c r="L38" s="46"/>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
@@ -14175,31 +14283,12 @@
       <c r="Z38" s="37"/>
     </row>
     <row r="39" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="48"/>
-      <c r="B39" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>144</v>
-      </c>
+      <c r="A39" s="49"/>
+      <c r="B39" s="48"/>
       <c r="H39" s="47"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="46" t="s">
-        <v>56</v>
-      </c>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
       <c r="L39" s="46"/>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
@@ -14216,13 +14305,13 @@
       <c r="Y39" s="37"/>
       <c r="Z39" s="37"/>
     </row>
-    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="39" t="s">
+    <row r="40" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="49"/>
+      <c r="B40" s="48" t="s">
         <v>146</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>47</v>
@@ -14230,18 +14319,14 @@
       <c r="E40" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="39"/>
+      <c r="G40" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46" t="s">
-        <v>56</v>
-      </c>
+      <c r="H40" s="47"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="46"/>
       <c r="M40" s="37"/>
       <c r="N40" s="37"/>
@@ -14258,18 +14343,20 @@
       <c r="Y40" s="37"/>
       <c r="Z40" s="37"/>
     </row>
-    <row r="41" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="54"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+    <row r="41" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
-      <c r="F41" s="47"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="46"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="46" t="s">
+        <v>149</v>
+      </c>
       <c r="L41" s="46"/>
       <c r="M41" s="37"/>
       <c r="N41" s="37"/>
@@ -14286,17 +14373,12 @@
       <c r="Y41" s="37"/>
       <c r="Z41" s="37"/>
     </row>
-    <row r="42" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="54"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
+    <row r="42" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="49"/>
+      <c r="B42" s="48"/>
       <c r="H42" s="47"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
       <c r="M42" s="37"/>
@@ -14314,18 +14396,32 @@
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
     </row>
-    <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="54"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="46"/>
+    <row r="43" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="49"/>
+      <c r="B43" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="47"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="L43" s="46"/>
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
@@ -14344,16 +14440,30 @@
     </row>
     <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="54"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="46"/>
+      <c r="B44" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="L44" s="46"/>
       <c r="M44" s="37"/>
       <c r="N44" s="37"/>
@@ -14370,17 +14480,17 @@
       <c r="Y44" s="37"/>
       <c r="Z44" s="37"/>
     </row>
-    <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="54"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="37"/>
@@ -14398,17 +14508,17 @@
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
     </row>
-    <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="54"/>
-      <c r="B46" s="39"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
       <c r="K46" s="46"/>
       <c r="L46" s="46"/>
       <c r="M46" s="37"/>
@@ -14426,17 +14536,17 @@
       <c r="Y46" s="37"/>
       <c r="Z46" s="37"/>
     </row>
-    <row r="47" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="54"/>
-      <c r="B47" s="39"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
       <c r="K47" s="46"/>
       <c r="L47" s="46"/>
       <c r="M47" s="37"/>
@@ -14456,15 +14566,15 @@
     </row>
     <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="54"/>
-      <c r="B48" s="39"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="47"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
       <c r="K48" s="46"/>
       <c r="L48" s="46"/>
       <c r="M48" s="37"/>
@@ -14482,17 +14592,17 @@
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
     </row>
-    <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="54"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
       <c r="K49" s="46"/>
       <c r="L49" s="46"/>
       <c r="M49" s="37"/>
@@ -14510,10 +14620,118 @@
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="54"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+    </row>
+    <row r="51" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="54"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+    </row>
+    <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="54"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+    </row>
+    <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="54"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+    </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -15475,6 +15693,10 @@
     <row r="1012" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1013" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1014" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1016" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1017" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1018" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="106">
     <mergeCell ref="I1:J1"/>
@@ -15487,102 +15709,102 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:A24"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A26"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:A39"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:A43"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:B35"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:B38"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B42:B44"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K43:L43"/>
+    <mergeCell ref="A44:A53"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:B46"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:B49"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15602,8 +15824,8 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15613,7 +15835,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -15653,7 +15875,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -15688,7 +15910,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -15840,7 +16062,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -15911,7 +16133,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15921,7 +16143,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -15961,7 +16183,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -15996,7 +16218,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -16148,7 +16370,315 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>191</v>
+        <v>201</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="76"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="79" t="n">
+        <v>43976</v>
+      </c>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="82"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="83" t="s">
+        <v>202</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -16219,7 +16749,7 @@
   <dimension ref="A1:BG111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BC2" activeCellId="0" sqref="BC2"/>
+      <selection pane="topLeft" activeCell="V7" activeCellId="0" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16236,7 +16766,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -16310,7 +16840,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="62" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
@@ -16361,7 +16891,7 @@
       <c r="BA2" s="63"/>
       <c r="BB2" s="63"/>
       <c r="BC2" s="42" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="BD2" s="42"/>
       <c r="BE2" s="42"/>
@@ -16448,7 +16978,7 @@
       <c r="F4" s="62"/>
       <c r="G4" s="62"/>
       <c r="H4" s="62" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
@@ -16519,7 +17049,7 @@
       <c r="F5" s="62"/>
       <c r="G5" s="62"/>
       <c r="H5" s="62" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
@@ -16586,7 +17116,7 @@
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="62" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
@@ -16759,7 +17289,7 @@
       <c r="BA8" s="69"/>
       <c r="BB8" s="68"/>
       <c r="BC8" s="67" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="BD8" s="67"/>
       <c r="BE8" s="67"/>
@@ -16816,20 +17346,20 @@
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="68" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AX9" s="67" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AY9" s="67"/>
       <c r="AZ9" s="67"/>
       <c r="BA9" s="69"/>
       <c r="BB9" s="68"/>
       <c r="BC9" s="67" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BD9" s="67" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BE9" s="2"/>
       <c r="BF9" s="67"/>
@@ -16885,20 +17415,20 @@
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="68" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AX10" s="67" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AY10" s="67"/>
       <c r="AZ10" s="67"/>
       <c r="BA10" s="69"/>
       <c r="BB10" s="68"/>
       <c r="BC10" s="67" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BD10" s="67" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="BE10" s="2"/>
       <c r="BF10" s="67"/>
@@ -16960,10 +17490,10 @@
       <c r="BA11" s="69"/>
       <c r="BB11" s="68"/>
       <c r="BC11" s="67" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BD11" s="67" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="BE11" s="2"/>
       <c r="BF11" s="67"/>
@@ -17025,10 +17555,10 @@
       <c r="BA12" s="69"/>
       <c r="BB12" s="68"/>
       <c r="BC12" s="67" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BD12" s="67" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BE12" s="2"/>
       <c r="BF12" s="67"/>
@@ -17591,13 +18121,13 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -17660,7 +18190,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -17723,7 +18253,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -17786,7 +18316,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -17849,7 +18379,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -17908,13 +18438,13 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -17973,13 +18503,13 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -18038,13 +18568,13 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -18107,7 +18637,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -18170,7 +18700,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -18233,7 +18763,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -18296,7 +18826,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -18359,7 +18889,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -18422,7 +18952,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -18485,7 +19015,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -18548,7 +19078,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -23996,7 +24526,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -24036,7 +24566,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -24071,7 +24601,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -24223,7 +24753,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -24304,7 +24834,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -24344,7 +24874,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -24379,7 +24909,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -24531,7 +25061,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -24612,7 +25142,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -24652,7 +25182,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -24687,7 +25217,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -24839,7 +25369,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -24920,7 +25450,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -24960,7 +25490,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -24995,7 +25525,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -25147,7 +25677,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -25228,7 +25758,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -25268,7 +25798,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -25303,7 +25833,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -25455,7 +25985,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -25536,7 +26066,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -25576,7 +26106,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="77" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
@@ -25611,7 +26141,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="77"/>
@@ -25763,7 +26293,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>

--- a/document/機能/機能設計書.xlsx
+++ b/document/機能/機能設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,8 +49,8 @@
     <sheet name="DispUserInfoServlet" sheetId="39" state="visible" r:id="rId40"/>
     <sheet name="DeleteCartServlet" sheetId="40" state="visible" r:id="rId41"/>
     <sheet name="UpdateCartServlet" sheetId="41" state="visible" r:id="rId42"/>
-    <sheet name="InsertGootsServlet" sheetId="42" state="visible" r:id="rId43"/>
-    <sheet name="InsertCartServlet" sheetId="43" state="visible" r:id="rId44"/>
+    <sheet name="InsertCartServlet" sheetId="42" state="visible" r:id="rId43"/>
+    <sheet name="InsertGootsServlet" sheetId="43" state="visible" r:id="rId44"/>
     <sheet name="DeleteGootsServlet" sheetId="44" state="visible" r:id="rId45"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="462">
   <si>
     <t xml:space="preserve">作成日</t>
   </si>
@@ -1311,7 +1311,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">引数：　</t>
+      <t xml:space="preserve">引数：　login</t>
     </r>
     <r>
       <rPr>
@@ -1321,7 +1321,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">userId : String , password : String</t>
+      <t xml:space="preserve">Id : String , password : String</t>
     </r>
   </si>
   <si>
@@ -1585,7 +1585,7 @@
     <t xml:space="preserve">UserDtoクラスのインスタンス userDto 生成</t>
   </si>
   <si>
-    <t xml:space="preserve">createuser..jspからの入力パラメータ　ユーザーId(userid),</t>
+    <t xml:space="preserve">createuser..jspからの入力パラメータ　ログイン用Id(loginid),</t>
   </si>
   <si>
     <t xml:space="preserve">パスワード(Userpassword), 名前(username),アドレス(address).確認アドレス(addresssub).電話番号(tel).性別(gender)を取得する</t>
@@ -1597,90 +1597,87 @@
     <t xml:space="preserve">UserDaoクラスのインスタンスuserDaoを生成</t>
   </si>
   <si>
+    <t xml:space="preserve">IDの重複チェック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adminDaoインスタンスのidCheckメソッドを呼び出し、IDの重複を確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド名：　checkUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引数：　loginId : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戻り値：  isSuccess : boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSuccessがfalseであれば　　入力画面へ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">createuser.jspへフォワード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSuccessがtrueであれば6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 会員登録</t>
   </si>
   <si>
-    <t xml:space="preserve">userDaoインスタンスのinsertDateメソッドを呼び出し、会員情報を登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド名：　insertDate</t>
+    <t xml:space="preserve">userDaoインスタンスのinsertUserメソッドを呼び出し、会員情報を登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド名：　insertUser</t>
   </si>
   <si>
     <t xml:space="preserve">引数：　userDto : UserDto</t>
   </si>
   <si>
-    <t xml:space="preserve">戻り値：  successUser : boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">successUserがtrueであれば　</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員ID取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userDaoインスタンスのgetIdメソッドを呼び出し、会員Idを登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド名：　getId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引数：　loginId : LoginId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">戻り値：  successId : boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">successUserがfalseであれば　　入力画面へ		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">successIdがtrueであれば　　メニュー画面へ		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userDtoをセッションに保存する</t>
+    <t xml:space="preserve">isSuccessがtrueであれば　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuServletへリダイレクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【 機能ID: F1-2-2】 会員退会機能　　DrawUserServletクラス詳細定義</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　/drawuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　入力された登録退会を行なうサーブレット（コントローラー）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　入力された会員情報の削除を行うサーブレット（コントローラー）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッションスコープより userDto（UserDtoクラスのインスタンス）を取得し、ビーンズ要素のID(Id)を取得する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D UserDaoクラスのインスタンス userDao 生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録情報削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userDaoインスタンスのDeleteUserメソッドを呼び出し、会員情報を削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド名：　DeleteUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引数：　user_id:String,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSuccessがtrueであれば　　メニュー画面へ</t>
   </si>
   <si>
     <t xml:space="preserve">MenuServlet(URL：)へリダイレクト		</t>
   </si>
   <si>
-    <t xml:space="preserve">successIdがfalseであれば　　入力画面へ		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【 機能ID: F1-2-2】 会員退会機能　　DrawUserServletクラス詳細定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　/drawuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　入力された登録退会を行なうサーブレット（コントローラー）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　入力された会員情報の削除を行うサーブレット（コントローラー）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">セッションスコープより userDto（UserDtoクラスのインスタンス）を取得し、ビーンズ要素のID(Id)を取得する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D UserDaoクラスのインスタンス userDao 生成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録情報削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userDaoインスタンスのDeleteUserメソッドを呼び出し、会員情報を削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド名：　DeleteUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引数：　user_id:String,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">戻り値：  isSuccess : boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSuccessがtrueであれば　　メニュー画面へ</t>
-  </si>
-  <si>
     <t xml:space="preserve">isSuccessがtrueでなければ　　会員情報画面へ</t>
   </si>
   <si>
@@ -1717,6 +1714,9 @@
     <t xml:space="preserve">isSuccessがtrueであれば　セッションを設定し直し　メニュー画面へ</t>
   </si>
   <si>
+    <t xml:space="preserve">isSuccessがfalseであれば　　会員情報画面へ</t>
+  </si>
+  <si>
     <t xml:space="preserve">【 機能ID: F1-3-1】 メニュー機能　　MenuServletクラス詳細定義</t>
   </si>
   <si>
@@ -1744,13 +1744,65 @@
     <t xml:space="preserve">List&lt;GoodsListDto&gt;クラスのインスタンス diarylist 生成</t>
   </si>
   <si>
-    <t xml:space="preserve">DiaryDaoクラスのインスタンスdiaryDaoを生成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日誌履歴情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diaryDaoインスタンスのgetListメソッドを呼び出し、日誌履歴情報 list（:List&lt;DiaryBeans&gt;クラス）を取得</t>
+    <t xml:space="preserve">GoodsDaoクラスのインスタンスdiaryDaoを生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品詳細情報取得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diaryDaoインスタンスのgetGoodsメソッドを呼び出し、</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">メソッド名：　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">getGoods</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">引数：　goodsId : int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戻り値：  goodsDto :goodsDtoクラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品詳細情報 diarylistを受け取る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【 機能ID: F1-4-2】 商品一覧表示機能　　DispGoodsListServletクラス詳細定義</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　/dispgoodslist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品一覧表示するサーブレット（コントローラー）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;ListGoodsDto&gt;クラスのインスタンス listGoodsDto 生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoodsDaoクラスのインスタンスgoodsdaoを生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品一覧情報取得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goodsDaoインスタンスのgetListメソッドを呼び出し、商品一覧情報 list（:List&lt;ListGoodsDto&gt;クラス）を取得</t>
   </si>
   <si>
     <r>
@@ -1773,36 +1825,6 @@
       </rPr>
       <t xml:space="preserve">getList</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">引数：　goodsId : String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">戻り値：  diarylist : List&lt;DiaryBeans&gt;クラス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日誌履歴情報 diarylistを受け取る</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【 機能ID: F1-4-2】 商品一覧表示機能　　DispGoodsListServletクラス詳細定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　/dispgoodslist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商品一覧表示するサーブレット（コントローラー）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List&lt;ListGoodsDto&gt;クラスのインスタンス listGoodsDto 生成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GoodsDaoクラスのインスタンスgoodsdaoを生成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商品一覧情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goodsDaoインスタンスのgetListメソッドを呼び出し、商品一覧情報 list（:List&lt;ListGoodsDto&gt;クラス）を取得</t>
   </si>
   <si>
     <t xml:space="preserve">戻り値：  listGoodsDto : List&lt;ListGoodsDto&gt;クラス</t>
@@ -2152,6 +2174,88 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve">adminDao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">インスタンスの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">メソッドを呼び出し、ログインユーザー情報 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">loginInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">:LoginInfoDto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">クラス）を取得</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve">LoginAdminServlet(URL</t>
     </r>
     <r>
@@ -2211,7 +2315,7 @@
     <t xml:space="preserve">登録画面(createadminuser..jsp)へフォワードする</t>
   </si>
   <si>
-    <t xml:space="preserve">createadminuser..jspからの入力パラメータ　ユーザーId(userid),</t>
+    <t xml:space="preserve">createadminuser..jspからの入力パラメータ　ログイン用Id(loginId),</t>
   </si>
   <si>
     <t xml:space="preserve">パスワード(userpassword), 名前(username),アドレス(address).確認アドレス(addresssub).電話番号(tel).性別(gender)を取得する</t>
@@ -2220,13 +2324,31 @@
     <t xml:space="preserve">上記2で取得した情報をadminUserDtoへ格納する</t>
   </si>
   <si>
-    <t xml:space="preserve">引数：　adminUserDto : AdminUserDto</t>
+    <t xml:space="preserve">重複チェック</t>
   </si>
   <si>
     <t xml:space="preserve">登録画面(createadminuser.jsp)へフォワードする</t>
   </si>
   <si>
-    <t xml:space="preserve">MenuAdminServletURL：)へリダイレクト		</t>
+    <t xml:space="preserve">6-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adminDaoインスタンスのinsertUserメソッドを呼び出し、会員情報を登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド名：　insertAdminUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引数：　adminDto : AdminDto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理者用メニュー画面(MenuAdminServlet)ヘリダイレクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-2</t>
   </si>
   <si>
     <t xml:space="preserve">【 機能ID: F2-2-2】 管理者退会機能　　DrawAdminUserServletクラス詳細定義</t>
@@ -2244,15 +2366,21 @@
     <t xml:space="preserve">セッションスコープより adminUserDto（AdminUserDtoクラスのインスタンス）を取得し、ビーンズ要素のID(Id)を取得する</t>
   </si>
   <si>
-    <t xml:space="preserve">UserDaoクラスのインスタンス userDao 生成</t>
+    <t xml:space="preserve">AdminDaoクラスのインスタンス adminrDao 生成</t>
   </si>
   <si>
     <t xml:space="preserve">管理者情報削除</t>
   </si>
   <si>
+    <t xml:space="preserve">adminDaoインスタンスのDeleteUserメソッドを呼び出し、会員情報を削除</t>
+  </si>
+  <si>
     <t xml:space="preserve">引数：id:String,</t>
   </si>
   <si>
+    <t xml:space="preserve">isSuccessがtrueであればセッションを破棄して　　メニュー画面へ</t>
+  </si>
+  <si>
     <t xml:space="preserve">MenuAdminServlet(URL：)へリダイレクト		</t>
   </si>
   <si>
@@ -2271,16 +2399,13 @@
     <t xml:space="preserve">管理者情報の更新を行うサーブレット（コントローラー）</t>
   </si>
   <si>
-    <t xml:space="preserve"> UserDaoクラスのインスタンス userDao 生成</t>
+    <t xml:space="preserve">AdminDaoクラスのインスタンス adminDao 生成</t>
   </si>
   <si>
     <t xml:space="preserve">登録情報更新</t>
   </si>
   <si>
-    <t xml:space="preserve">userDaoインスタンスのupdateUserメソッドを呼び出し、管理者情報を更新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引数：　adminUserDto:AdminUserDto</t>
+    <t xml:space="preserve">adminDaoインスタンスのupdateUserメソッドを呼び出し、管理者情報を更新</t>
   </si>
   <si>
     <t xml:space="preserve">MenuAdminServlet(URL：)へリダイレクト</t>
@@ -2487,9 +2612,6 @@
     <t xml:space="preserve">商品の削除を行うサーブレット（コントローラー）</t>
   </si>
   <si>
-    <t xml:space="preserve">セッションスコープより cartsDao（CartsDaoクラスのインスタンス）を取得し、ビーンズ要素のID(Id)を取得する</t>
-  </si>
-  <si>
     <t xml:space="preserve">CartsDaoクラスのインスタンス cartsDao生成</t>
   </si>
   <si>
@@ -2502,7 +2624,7 @@
     <t xml:space="preserve">メソッド名：　DeleteCarts</t>
   </si>
   <si>
-    <t xml:space="preserve">引数：　id:String,</t>
+    <t xml:space="preserve">引数：　id : int,</t>
   </si>
   <si>
     <t xml:space="preserve">isSuccessがtrueでなければ　　商品一覧画面へ</t>
@@ -2523,19 +2645,16 @@
     <t xml:space="preserve">カートの更新を行うサーブレット（コントローラー）</t>
   </si>
   <si>
-    <t xml:space="preserve">セッションスコープより cartsDto（CartsDtoクラスのインスタンス）を取得し、ビーンズ要素のID(Id)を取得する</t>
-  </si>
-  <si>
     <t xml:space="preserve">CartsDaoクラスのインスタンス cartsDao 生成</t>
   </si>
   <si>
     <t xml:space="preserve">カートの更新</t>
   </si>
   <si>
-    <t xml:space="preserve">cartsDaoインスタンスのcartsメソッドを呼び出し、商品情報を削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド名：　carts</t>
+    <t xml:space="preserve">cartsDaoインスタンスのupdateCartメソッドを呼び出し、カート情報を更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド名：　updateCart</t>
   </si>
   <si>
     <t xml:space="preserve">引数：　cartsDto: CartsDto</t>
@@ -2553,7 +2672,7 @@
     <t xml:space="preserve">日誌管理システム　機能設計書</t>
   </si>
   <si>
-    <t xml:space="preserve">【 機能ID:F2-3-1】 カート追加機能　　InsertGootsServletクラス詳細定義</t>
+    <t xml:space="preserve">【 機能ID: F1-6-1】 カート追加機能　　InsertCartServletクラス詳細定義</t>
   </si>
   <si>
     <r>
@@ -2600,21 +2719,54 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">　/insertcart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　入力された商品情報の追加を行なうサーブレット（コントローラー）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doPOST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CratsDaoクラスのインスタンスcratsDaoを生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispgoodsdetail..jspからの入力パラメータ　ユーザーId(user_id),商品ID(goods_id),数量 (volume)を取得する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カート商品登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cartsDaoインスタンスのinsertCartメソッドを呼び出し、商品を登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド名：　insertCart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引数：　cartsDto : CartsDto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戻り値：  successCarts : boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">successCartsがtrueであれば　　メニュー画面へ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuccsuccessCartsessがtrueでなければ　　商品一覧画面へ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【 機能ID:F2-3-1】 カート追加機能　　InsertGootsServletクラス詳細定義</t>
+  </si>
+  <si>
     <t xml:space="preserve">　/insertgoots</t>
   </si>
   <si>
-    <t xml:space="preserve">　入力された商品情報の追加を行なうサーブレット（コントローラー）</t>
-  </si>
-  <si>
     <t xml:space="preserve">　入力された商品情報の追加を行なうサーブレット</t>
   </si>
   <si>
     <t xml:space="preserve">登録画面(insertgoots..jsp)へフォワードする</t>
   </si>
   <si>
-    <t xml:space="preserve"> doPOST</t>
-  </si>
-  <si>
     <t xml:space="preserve">GoodsDtoクラスのインスタンスgoodsDtoを生成</t>
   </si>
   <si>
@@ -2624,9 +2776,6 @@
     <t xml:space="preserve">在庫(stock),説明(description),カテゴリー(category_id)ブランドID(brand_id)を取得する</t>
   </si>
   <si>
-    <t xml:space="preserve">カート商品登録</t>
-  </si>
-  <si>
     <t xml:space="preserve">goodsDaoインスタンスのinsertGoodsメソッドを呼び出し、商品を登録</t>
   </si>
   <si>
@@ -2645,36 +2794,6 @@
     <t xml:space="preserve">successGoodsがtrueでなければ　　商品一覧画面へ</t>
   </si>
   <si>
-    <t xml:space="preserve">【 機能ID: F1-6-1】 カート追加機能　　InsertCartServletクラス詳細定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　/insertcart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CratsDaoクラスのインスタンスcratsDaoを生成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dispgoodsdetail..jspからの入力パラメータ　ユーザーId(user_id),商品ID(goods_id),数量 (volume)を取得する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cartsDaoインスタンスのinsertCartメソッドを呼び出し、商品を登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド名：　insertCart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引数：　cartsDto : CartsDto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">戻り値：  successCarts : boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">successCartsがtrueであれば　　メニュー画面へ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuccsuccessCartsessがtrueでなければ　　商品一覧画面へ</t>
-  </si>
-  <si>
     <t xml:space="preserve">【 機能ID: F2-5-1】 商品削除機能　　DeleteGoodsServletクラス詳細定義</t>
   </si>
   <si>
@@ -2696,22 +2815,26 @@
     <t xml:space="preserve">セッションスコープより GoodsDao（GoodsDaoクラスのインスタンス）を取得し、ビーンズ要素のID(Id)を取得する</t>
   </si>
   <si>
-    <t xml:space="preserve">GoodsDaoインスタンスのDeleteGoodsメソッドを呼び出し、商品情報を削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド名：　DeleteGoods</t>
+    <t xml:space="preserve">GoodsDaoインスタンスのdeleteGoodsメソッドを呼び出し、商品情報を削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド名：　deleteGoods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引数：id:int,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="[$-F800]DDDD&quot;, &quot;MMMM\ DD&quot;, &quot;YYYY"/>
     <numFmt numFmtId="168" formatCode="MM\月DD\日"/>
+    <numFmt numFmtId="169" formatCode="M\月D\日"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3077,7 +3200,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="243">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3670,6 +3793,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3862,6 +3989,90 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3871,14 +4082,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3970,82 +4173,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -4130,9 +4257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>455040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4142,7 +4269,133 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12891960" cy="14213160"/>
+          <a:ext cx="12891240" cy="14212440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455040</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12891240" cy="14212440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12891600" cy="14212800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12891600" cy="14212800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4173,134 +4426,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>455760</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12891960" cy="14213160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12892320" cy="14213520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12892320" cy="14213520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4310,7 +4437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12892680" cy="12727800"/>
+          <a:ext cx="12891960" cy="12727080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4343,9 +4470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4355,7 +4482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12892680" cy="12727800"/>
+          <a:ext cx="12891960" cy="12727080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4393,9 +4520,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>751320</xdr:colOff>
+      <xdr:colOff>750600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4409,7 +4536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="922680" y="1612800"/>
-          <a:ext cx="5518080" cy="4885560"/>
+          <a:ext cx="5517360" cy="4884840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4435,9 +4562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>416520</xdr:colOff>
+      <xdr:colOff>415800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4451,7 +4578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="5293440" cy="4693680"/>
+          <a:ext cx="5292720" cy="4692960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4477,9 +4604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>120240</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4493,7 +4620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="5810040" cy="4434480"/>
+          <a:ext cx="5809320" cy="4433760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4519,9 +4646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>704160</xdr:colOff>
+      <xdr:colOff>703440</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4535,7 +4662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="794520" y="1521000"/>
-          <a:ext cx="19416600" cy="10725480"/>
+          <a:ext cx="19415880" cy="10724760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4556,14 +4683,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>524880</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4576,8 +4703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812520" y="1790640"/>
-          <a:ext cx="9476640" cy="6106320"/>
+          <a:off x="812520" y="1612800"/>
+          <a:ext cx="8652960" cy="5540760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4603,9 +4730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>564840</xdr:colOff>
+      <xdr:colOff>564120</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4619,7 +4746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="5441760" cy="4233240"/>
+          <a:ext cx="5441040" cy="4232520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4645,9 +4772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4661,7 +4788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="852120" y="1790640"/>
-          <a:ext cx="6658200" cy="6182280"/>
+          <a:ext cx="6657480" cy="6181560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4687,9 +4814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4703,7 +4830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="6747480" cy="6514560"/>
+          <a:ext cx="6746760" cy="6513840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4729,9 +4856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>189720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4745,7 +4872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="658800" y="1599120"/>
-          <a:ext cx="4408200" cy="3594960"/>
+          <a:ext cx="4407480" cy="3594240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4771,9 +4898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>353880</xdr:colOff>
+      <xdr:colOff>353160</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4787,7 +4914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="6856560" cy="6009480"/>
+          <a:ext cx="6855840" cy="6008760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4813,9 +4940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4825,7 +4952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10881000" y="6467400"/>
-          <a:ext cx="4521600" cy="4861800"/>
+          <a:ext cx="4520880" cy="4861080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4853,9 +4980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4865,7 +4992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10890720" y="2523960"/>
-          <a:ext cx="2811600" cy="3547440"/>
+          <a:ext cx="2810880" cy="3546720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4893,9 +5020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4905,7 +5032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="407520" y="2876400"/>
-          <a:ext cx="3363480" cy="1185120"/>
+          <a:ext cx="3362760" cy="1184400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4933,9 +5060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4945,7 +5072,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="407520" y="3304800"/>
-          <a:ext cx="3363480" cy="70920"/>
+          <a:ext cx="3362760" cy="70200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4975,9 +5102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>210600</xdr:colOff>
+      <xdr:colOff>209880</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4987,7 +5114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="407520" y="4219560"/>
-          <a:ext cx="3344400" cy="1061280"/>
+          <a:ext cx="3343680" cy="1060560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5015,9 +5142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>210600</xdr:colOff>
+      <xdr:colOff>209880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5027,7 +5154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="407520" y="4610160"/>
-          <a:ext cx="3344400" cy="80280"/>
+          <a:ext cx="3343680" cy="79560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5057,9 +5184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5069,7 +5196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="407520" y="5429160"/>
-          <a:ext cx="3363480" cy="1137600"/>
+          <a:ext cx="3362760" cy="1136880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5097,9 +5224,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5109,7 +5236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="407520" y="5835240"/>
-          <a:ext cx="3363480" cy="41760"/>
+          <a:ext cx="3362760" cy="41040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5139,9 +5266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5151,7 +5278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3910680" y="9553680"/>
-          <a:ext cx="5140800" cy="2366280"/>
+          <a:ext cx="5140080" cy="2365560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5179,9 +5306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5191,7 +5318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4138920" y="10496520"/>
-          <a:ext cx="4479120" cy="42120"/>
+          <a:ext cx="4478400" cy="41400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5221,9 +5348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>168480</xdr:colOff>
+      <xdr:colOff>167760</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5233,7 +5360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6770160" y="3895560"/>
-          <a:ext cx="2412720" cy="2271240"/>
+          <a:ext cx="2412000" cy="2270520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5283,9 +5410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>315720</xdr:colOff>
+      <xdr:colOff>315000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5295,7 +5422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6392880" y="1685880"/>
-          <a:ext cx="2615040" cy="1404360"/>
+          <a:ext cx="2614320" cy="1403640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5323,9 +5450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5335,7 +5462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5644080" y="6114960"/>
-          <a:ext cx="4275720" cy="2985480"/>
+          <a:ext cx="4275000" cy="2984760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5363,9 +5490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261360</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5375,7 +5502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5682240" y="6562440"/>
-          <a:ext cx="4237920" cy="90000"/>
+          <a:ext cx="4237200" cy="89280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5405,9 +5532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5417,7 +5544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5179320" y="4133880"/>
-          <a:ext cx="3458160" cy="1642320"/>
+          <a:ext cx="3457440" cy="1641600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5445,9 +5572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5457,7 +5584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5179320" y="4597920"/>
-          <a:ext cx="3458160" cy="117720"/>
+          <a:ext cx="3457440" cy="117000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5487,9 +5614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>184320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5499,7 +5626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8200800" y="3257280"/>
-          <a:ext cx="32760" cy="632880"/>
+          <a:ext cx="32040" cy="632160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5540,9 +5667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>289800</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5552,7 +5679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8096040" y="3105000"/>
-          <a:ext cx="242280" cy="165960"/>
+          <a:ext cx="241560" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -5584,9 +5711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>279000</xdr:colOff>
+      <xdr:colOff>278280</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5595,13 +5722,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="3155" t="0" r="0" b="19335"/>
+        <a:srcRect l="3155" t="0" r="0" b="19330"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="88920" y="1243080"/>
-          <a:ext cx="13969440" cy="12415680"/>
+          <a:ext cx="13968720" cy="12414960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5610,7 +5737,7 @@
           <a:noFill/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw dist="10182" dir="2700000">
+          <a:outerShdw dir="2700000" dist="10182">
             <a:srgbClr val="000000"/>
           </a:outerShdw>
         </a:effectLst>
@@ -5627,9 +5754,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254880</xdr:colOff>
+      <xdr:colOff>254160</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5638,13 +5765,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4153" t="80590" r="78063" b="971"/>
+        <a:srcRect l="4153" t="80567" r="78042" b="971"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2841840" y="10724400"/>
-          <a:ext cx="2563920" cy="2837520"/>
+          <a:ext cx="2563200" cy="2836800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5670,9 +5797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5686,7 +5813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878400" y="1526760"/>
-          <a:ext cx="7335000" cy="5520240"/>
+          <a:ext cx="7334280" cy="5519520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5712,9 +5839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5728,7 +5855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="960480" y="1497240"/>
-          <a:ext cx="6975720" cy="5864760"/>
+          <a:ext cx="6975000" cy="5864040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5754,9 +5881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>558000</xdr:colOff>
+      <xdr:colOff>557280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5770,7 +5897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="4622040" cy="3592440"/>
+          <a:ext cx="4621320" cy="3591720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5796,9 +5923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>798120</xdr:colOff>
+      <xdr:colOff>797400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5812,7 +5939,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="802800" y="1626120"/>
-          <a:ext cx="7310520" cy="4851360"/>
+          <a:ext cx="7309800" cy="4850640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5838,9 +5965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>539640</xdr:colOff>
+      <xdr:colOff>538920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5854,7 +5981,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1790640"/>
-          <a:ext cx="9480600" cy="7028640"/>
+          <a:ext cx="9479880" cy="7027920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5880,9 +6007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
+      <xdr:colOff>425160</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5896,7 +6023,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="834120" y="1537920"/>
-          <a:ext cx="4468320" cy="4890960"/>
+          <a:ext cx="4467600" cy="4890240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5922,9 +6049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5938,7 +6065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="6586560" cy="5679360"/>
+          <a:ext cx="6585840" cy="5678640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5964,9 +6091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>492840</xdr:colOff>
+      <xdr:colOff>492120</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5980,7 +6107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="9433800" cy="5478120"/>
+          <a:ext cx="9433080" cy="5477400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6006,9 +6133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>480240</xdr:colOff>
+      <xdr:colOff>479520</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6022,7 +6149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274680" y="1612800"/>
-          <a:ext cx="9146160" cy="5538240"/>
+          <a:ext cx="9145440" cy="5537520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6048,9 +6175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6064,7 +6191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="1612800"/>
-          <a:ext cx="7352280" cy="5862240"/>
+          <a:ext cx="7351560" cy="5861520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10188,7 +10315,7 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -11113,7 +11240,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12652,8 +12779,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17644,8 +17771,8 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18174,7 +18301,7 @@
       <c r="H33" s="136"/>
       <c r="I33" s="137"/>
     </row>
-    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="18.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="135"/>
       <c r="B34" s="138"/>
       <c r="C34" s="136" t="s">
@@ -19142,10 +19269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F64" activeCellId="0" sqref="F64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19978,9 +20105,7 @@
       <c r="I53" s="137"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="135" t="n">
-        <v>5</v>
-      </c>
+      <c r="A54" s="135"/>
       <c r="B54" s="147" t="s">
         <v>278</v>
       </c>
@@ -19992,7 +20117,7 @@
       <c r="H54" s="136"/>
       <c r="I54" s="137"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="135"/>
       <c r="B55" s="147"/>
       <c r="C55" s="147" t="s">
@@ -20005,7 +20130,7 @@
       <c r="H55" s="136"/>
       <c r="I55" s="137"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="135"/>
       <c r="B56" s="147"/>
       <c r="C56" s="147" t="s">
@@ -20018,7 +20143,7 @@
       <c r="H56" s="136"/>
       <c r="I56" s="137"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="135"/>
       <c r="B57" s="147"/>
       <c r="C57" s="147" t="s">
@@ -20031,7 +20156,7 @@
       <c r="H57" s="136"/>
       <c r="I57" s="137"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="135"/>
       <c r="B58" s="147"/>
       <c r="C58" s="147" t="s">
@@ -20046,10 +20171,10 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="135"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
       <c r="F59" s="136"/>
       <c r="G59" s="136"/>
       <c r="H59" s="136"/>
@@ -20059,12 +20184,12 @@
       <c r="A60" s="135" t="n">
         <v>5</v>
       </c>
-      <c r="B60" s="147" t="s">
+      <c r="B60" s="136" t="s">
         <v>283</v>
       </c>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
       <c r="F60" s="136"/>
       <c r="G60" s="136"/>
       <c r="H60" s="136"/>
@@ -20072,12 +20197,12 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="135"/>
-      <c r="B61" s="147" t="s">
+      <c r="B61" s="136"/>
+      <c r="C61" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="136"/>
       <c r="F61" s="136"/>
       <c r="G61" s="136"/>
       <c r="H61" s="136"/>
@@ -20085,36 +20210,36 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="135"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="147" t="s">
-        <v>285</v>
-      </c>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
       <c r="F62" s="136"/>
       <c r="G62" s="136"/>
       <c r="H62" s="136"/>
       <c r="I62" s="137"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="135"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="147" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
+      <c r="B63" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="88"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
       <c r="F63" s="136"/>
       <c r="G63" s="136"/>
       <c r="H63" s="136"/>
       <c r="I63" s="137"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="135"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="147" t="s">
+      <c r="A64" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" s="147" t="s">
         <v>287</v>
       </c>
+      <c r="C64" s="147"/>
       <c r="D64" s="147"/>
       <c r="E64" s="147"/>
       <c r="F64" s="136"/>
@@ -20122,7 +20247,7 @@
       <c r="H64" s="136"/>
       <c r="I64" s="137"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="135"/>
       <c r="B65" s="147"/>
       <c r="C65" s="147" t="s">
@@ -20135,10 +20260,12 @@
       <c r="H65" s="136"/>
       <c r="I65" s="137"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="135"/>
       <c r="B66" s="147"/>
-      <c r="C66" s="147"/>
+      <c r="C66" s="147" t="s">
+        <v>289</v>
+      </c>
       <c r="D66" s="147"/>
       <c r="E66" s="147"/>
       <c r="F66" s="136"/>
@@ -20146,24 +20273,24 @@
       <c r="H66" s="136"/>
       <c r="I66" s="137"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="135"/>
-      <c r="B67" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="136"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="147" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="147"/>
+      <c r="E67" s="147"/>
       <c r="F67" s="136"/>
       <c r="G67" s="136"/>
       <c r="H67" s="136"/>
       <c r="I67" s="137"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="135"/>
-      <c r="B68" s="144"/>
+      <c r="B68" s="147"/>
       <c r="C68" s="147" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D68" s="147"/>
       <c r="E68" s="147"/>
@@ -20183,9 +20310,13 @@
       <c r="H69" s="136"/>
       <c r="I69" s="137"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="135"/>
-      <c r="B70" s="147"/>
+    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="135" t="n">
+        <v>6</v>
+      </c>
+      <c r="B70" s="147" t="s">
+        <v>291</v>
+      </c>
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
       <c r="E70" s="147"/>
@@ -20197,7 +20328,9 @@
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="135"/>
       <c r="B71" s="147"/>
-      <c r="C71" s="147"/>
+      <c r="C71" s="144" t="s">
+        <v>292</v>
+      </c>
       <c r="D71" s="147"/>
       <c r="E71" s="147"/>
       <c r="F71" s="136"/>
@@ -20206,15 +20339,11 @@
       <c r="I71" s="137"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="135" t="n">
-        <v>6</v>
-      </c>
-      <c r="B72" s="144" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="136"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="136"/>
+      <c r="A72" s="135"/>
+      <c r="B72" s="147"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
       <c r="F72" s="136"/>
       <c r="G72" s="136"/>
       <c r="H72" s="136"/>
@@ -20222,23 +20351,23 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="135"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="144" t="s">
-        <v>291</v>
-      </c>
-      <c r="D73" s="136"/>
-      <c r="E73" s="136"/>
+      <c r="B73" s="147"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="147"/>
       <c r="F73" s="136"/>
       <c r="G73" s="136"/>
       <c r="H73" s="136"/>
       <c r="I73" s="137"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="135"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="144" t="s">
-        <v>292</v>
-      </c>
+    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="135" t="n">
+        <v>6</v>
+      </c>
+      <c r="B74" s="144" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="136"/>
       <c r="D74" s="136"/>
       <c r="E74" s="136"/>
       <c r="F74" s="136"/>
@@ -20248,63 +20377,41 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="135"/>
-      <c r="B75" s="136"/>
-      <c r="C75" s="136"/>
-      <c r="D75" s="136"/>
-      <c r="E75" s="136"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="147" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="147"/>
+      <c r="E75" s="147"/>
       <c r="F75" s="136"/>
       <c r="G75" s="136"/>
       <c r="H75" s="136"/>
       <c r="I75" s="137"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="135"/>
-      <c r="B76" s="144" t="s">
-        <v>293</v>
-      </c>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="136"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="147"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="147"/>
       <c r="F76" s="136"/>
       <c r="G76" s="136"/>
       <c r="H76" s="136"/>
       <c r="I76" s="137"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="135"/>
-      <c r="B77" s="144"/>
-      <c r="C77" s="147" t="s">
-        <v>272</v>
-      </c>
-      <c r="D77" s="147"/>
-      <c r="E77" s="147"/>
-      <c r="F77" s="147"/>
-      <c r="G77" s="136"/>
-      <c r="H77" s="136"/>
-      <c r="I77" s="137"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="135"/>
-      <c r="B78" s="147"/>
-      <c r="C78" s="147"/>
-      <c r="D78" s="147"/>
-      <c r="E78" s="136"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="136"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="137"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="139"/>
-      <c r="B79" s="133"/>
-      <c r="C79" s="146"/>
-      <c r="D79" s="146"/>
-      <c r="E79" s="146"/>
-      <c r="F79" s="133"/>
-      <c r="G79" s="133"/>
-      <c r="H79" s="133"/>
-      <c r="I79" s="140"/>
-    </row>
+      <c r="A77" s="139"/>
+      <c r="B77" s="133"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="146"/>
+      <c r="F77" s="133"/>
+      <c r="G77" s="133"/>
+      <c r="H77" s="133"/>
+      <c r="I77" s="140"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C2:G2"/>
@@ -20337,8 +20444,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H49" activeCellId="0" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20426,7 +20533,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -20534,7 +20641,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -20544,7 +20651,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -20741,7 +20848,7 @@
         <v>239</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="123"/>
@@ -20769,7 +20876,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="144" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="136"/>
       <c r="D26" s="136"/>
@@ -20795,7 +20902,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="147" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C28" s="147"/>
       <c r="D28" s="147"/>
@@ -20821,7 +20928,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="144" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="136"/>
       <c r="D30" s="136"/>
@@ -20835,7 +20942,7 @@
       <c r="A31" s="135"/>
       <c r="B31" s="136"/>
       <c r="C31" s="144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D31" s="136"/>
       <c r="E31" s="136"/>
@@ -20848,7 +20955,7 @@
       <c r="A32" s="135"/>
       <c r="B32" s="138"/>
       <c r="C32" s="144" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -20861,7 +20968,7 @@
       <c r="A33" s="135"/>
       <c r="B33" s="138"/>
       <c r="C33" s="144" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
@@ -20874,7 +20981,7 @@
       <c r="A34" s="135"/>
       <c r="B34" s="138"/>
       <c r="C34" s="144" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="D34" s="136"/>
       <c r="E34" s="136"/>
@@ -20899,7 +21006,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="147" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="147"/>
@@ -20913,7 +21020,7 @@
       <c r="A37" s="88"/>
       <c r="B37" s="147"/>
       <c r="C37" s="144" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D37" s="136"/>
       <c r="E37" s="136"/>
@@ -20936,7 +21043,7 @@
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="135"/>
       <c r="B39" s="147" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C39" s="147"/>
       <c r="D39" s="147"/>
@@ -20950,7 +21057,7 @@
       <c r="A40" s="135"/>
       <c r="B40" s="147"/>
       <c r="C40" s="144" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D40" s="136"/>
       <c r="E40" s="136"/>
@@ -21012,8 +21119,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21099,7 +21206,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -21207,7 +21314,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -21217,7 +21324,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -21413,7 +21520,7 @@
         <v>239</v>
       </c>
       <c r="B24" s="146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C24" s="133"/>
       <c r="D24" s="125"/>
@@ -21441,7 +21548,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="147" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C26" s="147"/>
       <c r="D26" s="147"/>
@@ -21504,7 +21611,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="144" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="136"/>
       <c r="D31" s="136"/>
@@ -21518,7 +21625,7 @@
       <c r="A32" s="135"/>
       <c r="B32" s="136"/>
       <c r="C32" s="144" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -21531,7 +21638,7 @@
       <c r="A33" s="135"/>
       <c r="B33" s="138"/>
       <c r="C33" s="144" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
@@ -21544,7 +21651,7 @@
       <c r="A34" s="135"/>
       <c r="B34" s="138"/>
       <c r="C34" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D34" s="136"/>
       <c r="E34" s="136"/>
@@ -21557,7 +21664,7 @@
       <c r="A35" s="135"/>
       <c r="B35" s="138"/>
       <c r="C35" s="144" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="D35" s="136"/>
       <c r="E35" s="136"/>
@@ -21582,7 +21689,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="147"/>
       <c r="D37" s="147"/>
@@ -21596,7 +21703,7 @@
       <c r="A38" s="88"/>
       <c r="B38" s="147"/>
       <c r="C38" s="144" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D38" s="136"/>
       <c r="E38" s="136"/>
@@ -21619,7 +21726,7 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="135"/>
       <c r="B40" s="147" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C40" s="147"/>
       <c r="D40" s="147"/>
@@ -21633,7 +21740,7 @@
       <c r="A41" s="135"/>
       <c r="B41" s="147"/>
       <c r="C41" s="144" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D41" s="136"/>
       <c r="E41" s="136"/>
@@ -21706,7 +21813,7 @@
   </sheetPr>
   <dimension ref="A1:BG111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BC9" activeCellId="0" sqref="BC9"/>
     </sheetView>
   </sheetViews>
@@ -29433,7 +29540,7 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -30169,8 +30276,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G55" activeCellId="0" sqref="G55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30399,17 +30506,17 @@
       <c r="J12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="149" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
       <c r="J13" s="88"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30486,7 +30593,7 @@
       <c r="A18" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="150" t="s">
         <v>247</v>
       </c>
       <c r="C18" s="123"/>
@@ -30594,16 +30701,16 @@
       <c r="A24" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="151" t="s">
         <v>325</v>
       </c>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
       <c r="J24" s="88"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30706,7 +30813,7 @@
       <c r="I31" s="137"/>
       <c r="J31" s="88"/>
     </row>
-    <row r="32" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="18.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="135"/>
       <c r="B32" s="138"/>
       <c r="C32" s="136" t="s">
@@ -30857,7 +30964,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31086,17 +31193,17 @@
       <c r="J12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="149" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
       <c r="J13" s="88"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31173,7 +31280,7 @@
       <c r="A18" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="150" t="s">
         <v>247</v>
       </c>
       <c r="C18" s="123"/>
@@ -31281,16 +31388,16 @@
       <c r="A24" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="151" t="s">
         <v>336</v>
       </c>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
       <c r="J24" s="88"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31409,7 +31516,7 @@
       <c r="A33" s="135"/>
       <c r="B33" s="138"/>
       <c r="C33" s="136" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
@@ -31423,7 +31530,7 @@
       <c r="A34" s="135"/>
       <c r="B34" s="138"/>
       <c r="C34" s="144" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D34" s="136"/>
       <c r="E34" s="136"/>
@@ -31450,7 +31557,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="144" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C36" s="136"/>
       <c r="D36" s="136"/>
@@ -31630,7 +31737,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="95"/>
@@ -31676,7 +31783,7 @@
         <v>170</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
@@ -31738,7 +31845,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="113" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -31972,7 +32079,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="136" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C26" s="136"/>
       <c r="D26" s="136"/>
@@ -32233,7 +32340,7 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -32320,7 +32427,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -32428,7 +32535,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -32699,7 +32806,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="141" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C29" s="136"/>
       <c r="D29" s="136"/>
@@ -32960,8 +33067,8 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33051,7 +33158,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="95"/>
@@ -33159,7 +33266,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="113" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -33393,7 +33500,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="136" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C26" s="136"/>
       <c r="D26" s="136"/>
@@ -33466,11 +33573,11 @@
       <c r="H31" s="136"/>
       <c r="I31" s="137"/>
     </row>
-    <row r="32" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="18.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="135"/>
       <c r="B32" s="136"/>
       <c r="C32" s="141" t="s">
-        <v>252</v>
+        <v>354</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -33492,7 +33599,7 @@
       <c r="H33" s="136"/>
       <c r="I33" s="137"/>
     </row>
-    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="18.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="135"/>
       <c r="B34" s="138"/>
       <c r="C34" s="136" t="s">
@@ -33587,7 +33694,7 @@
       <c r="A41" s="135"/>
       <c r="B41" s="136"/>
       <c r="C41" s="141" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D41" s="136"/>
       <c r="E41" s="136"/>
@@ -33624,7 +33731,7 @@
       <c r="A44" s="135"/>
       <c r="B44" s="136"/>
       <c r="C44" s="141" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D44" s="136"/>
       <c r="E44" s="136"/>
@@ -33684,10 +33791,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33773,7 +33880,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -33881,7 +33988,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -33891,7 +33998,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -34087,7 +34194,7 @@
         <v>239</v>
       </c>
       <c r="B24" s="146" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C24" s="133"/>
       <c r="D24" s="125"/>
@@ -34115,7 +34222,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="147" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C26" s="147"/>
       <c r="D26" s="147"/>
@@ -34398,7 +34505,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="144" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C47" s="136"/>
       <c r="D47" s="136"/>
@@ -34411,7 +34518,7 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="135"/>
       <c r="B48" s="144" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C48" s="88"/>
       <c r="D48" s="136"/>
@@ -34437,7 +34544,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="147" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C50" s="136"/>
       <c r="D50" s="136"/>
@@ -34489,7 +34596,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="147" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="C54" s="147"/>
       <c r="D54" s="147"/>
@@ -34499,7 +34606,7 @@
       <c r="H54" s="136"/>
       <c r="I54" s="137"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="135"/>
       <c r="B55" s="147"/>
       <c r="C55" s="147" t="s">
@@ -34512,7 +34619,7 @@
       <c r="H55" s="136"/>
       <c r="I55" s="137"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="135"/>
       <c r="B56" s="147"/>
       <c r="C56" s="147" t="s">
@@ -34525,11 +34632,11 @@
       <c r="H56" s="136"/>
       <c r="I56" s="137"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="135"/>
       <c r="B57" s="147"/>
       <c r="C57" s="147" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="D57" s="147"/>
       <c r="E57" s="147"/>
@@ -34538,7 +34645,7 @@
       <c r="H57" s="136"/>
       <c r="I57" s="137"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="135"/>
       <c r="B58" s="147"/>
       <c r="C58" s="147" t="s">
@@ -34562,152 +34669,159 @@
       <c r="H59" s="136"/>
       <c r="I59" s="137"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="135"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
+    <row r="60" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="144" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
       <c r="G60" s="136"/>
       <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
-      <c r="J60" s="151"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="135" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" s="147" t="s">
-        <v>283</v>
-      </c>
-      <c r="C61" s="147"/>
+      <c r="I60" s="137"/>
+    </row>
+    <row r="61" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="135"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="147" t="s">
+        <v>365</v>
+      </c>
       <c r="D61" s="147"/>
       <c r="E61" s="147"/>
       <c r="F61" s="136"/>
       <c r="G61" s="136"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="152"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="136"/>
-      <c r="M61" s="136"/>
-      <c r="N61" s="136"/>
-      <c r="O61" s="136"/>
-      <c r="P61" s="153"/>
+      <c r="H61" s="136"/>
+      <c r="I61" s="137"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="135"/>
-      <c r="B62" s="147" t="s">
-        <v>284</v>
-      </c>
+      <c r="B62" s="147"/>
       <c r="C62" s="147"/>
       <c r="D62" s="147"/>
       <c r="E62" s="147"/>
       <c r="F62" s="136"/>
       <c r="G62" s="136"/>
       <c r="H62" s="136"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="136"/>
-      <c r="M62" s="136"/>
-      <c r="N62" s="136"/>
-      <c r="O62" s="136"/>
-      <c r="P62" s="153"/>
+      <c r="I62" s="137"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="135"/>
       <c r="B63" s="147"/>
-      <c r="C63" s="147" t="s">
-        <v>285</v>
-      </c>
+      <c r="C63" s="147"/>
       <c r="D63" s="147"/>
       <c r="E63" s="147"/>
       <c r="F63" s="136"/>
-      <c r="J63" s="151"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="137"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="135"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="147" t="s">
-        <v>286</v>
-      </c>
+      <c r="A64" s="148" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" s="144" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="147"/>
       <c r="D64" s="147"/>
       <c r="E64" s="147"/>
-      <c r="F64" s="136"/>
-      <c r="J64" s="151"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="147"/>
+      <c r="G64" s="136"/>
+      <c r="H64" s="136"/>
+      <c r="I64" s="136"/>
+      <c r="J64" s="152"/>
+    </row>
+    <row r="65" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="135"/>
-      <c r="B65" s="147"/>
+      <c r="B65" s="136"/>
       <c r="C65" s="147" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="D65" s="147"/>
       <c r="E65" s="147"/>
       <c r="F65" s="136"/>
-      <c r="J65" s="151"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="137"/>
+    </row>
+    <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="135"/>
-      <c r="B66" s="147"/>
+      <c r="B66" s="136"/>
       <c r="C66" s="147" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="D66" s="147"/>
       <c r="E66" s="147"/>
       <c r="F66" s="136"/>
-      <c r="J66" s="151"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="137"/>
+    </row>
+    <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="135"/>
-      <c r="B67" s="147"/>
-      <c r="C67" s="147"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="147" t="s">
+        <v>369</v>
+      </c>
       <c r="D67" s="147"/>
       <c r="E67" s="147"/>
       <c r="F67" s="136"/>
-      <c r="J67" s="151"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="136"/>
+      <c r="H67" s="136"/>
+      <c r="I67" s="137"/>
+    </row>
+    <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="135"/>
-      <c r="B68" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="136"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="147" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="147"/>
+      <c r="E68" s="147"/>
       <c r="F68" s="136"/>
-      <c r="J68" s="151"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="137"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="135"/>
-      <c r="B69" s="144"/>
-      <c r="C69" s="147" t="s">
-        <v>363</v>
-      </c>
-      <c r="D69" s="147"/>
-      <c r="E69" s="147"/>
-      <c r="F69" s="136"/>
-      <c r="J69" s="151"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="135"/>
-      <c r="B70" s="147"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="137"/>
+    </row>
+    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="148" t="s">
+        <v>370</v>
+      </c>
+      <c r="B70" s="147" t="s">
+        <v>291</v>
+      </c>
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
       <c r="E70" s="147"/>
       <c r="F70" s="136"/>
-      <c r="J70" s="151"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="136"/>
+      <c r="J70" s="152"/>
+    </row>
+    <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="135"/>
       <c r="B71" s="147"/>
-      <c r="C71" s="147"/>
+      <c r="C71" s="147" t="s">
+        <v>371</v>
+      </c>
       <c r="D71" s="147"/>
       <c r="E71" s="147"/>
       <c r="F71" s="136"/>
-      <c r="J71" s="151"/>
+      <c r="J71" s="152"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="135"/>
@@ -34716,88 +34830,85 @@
       <c r="D72" s="147"/>
       <c r="E72" s="147"/>
       <c r="F72" s="136"/>
-      <c r="J72" s="151"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="135" t="n">
-        <v>6</v>
+      <c r="J72" s="152"/>
+    </row>
+    <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="135" t="s">
+        <v>372</v>
       </c>
       <c r="B73" s="144" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C73" s="136"/>
       <c r="D73" s="136"/>
       <c r="E73" s="136"/>
       <c r="F73" s="136"/>
-      <c r="J73" s="151"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="144"/>
+      <c r="I73" s="144"/>
+      <c r="J73" s="153"/>
+      <c r="K73" s="136"/>
+      <c r="L73" s="136"/>
+      <c r="M73" s="136"/>
+      <c r="N73" s="136"/>
+      <c r="O73" s="136"/>
+      <c r="P73" s="154"/>
+    </row>
+    <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="135"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="144" t="s">
-        <v>291</v>
-      </c>
-      <c r="D74" s="136"/>
-      <c r="E74" s="136"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="147" t="s">
+        <v>365</v>
+      </c>
+      <c r="D74" s="147"/>
+      <c r="E74" s="147"/>
       <c r="F74" s="136"/>
-      <c r="J74" s="151"/>
+      <c r="J74" s="152"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="135"/>
-      <c r="B75" s="136"/>
-      <c r="C75" s="144" t="s">
-        <v>364</v>
-      </c>
-      <c r="D75" s="136"/>
-      <c r="E75" s="136"/>
-      <c r="F75" s="136"/>
-      <c r="J75" s="151"/>
+      <c r="A75" s="0"/>
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="J75" s="152"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="135"/>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="136"/>
-      <c r="F76" s="136"/>
-      <c r="J76" s="151"/>
+      <c r="A76" s="0"/>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="J76" s="152"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="135"/>
-      <c r="B77" s="144" t="s">
-        <v>293</v>
-      </c>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="136"/>
-      <c r="J77" s="151"/>
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="J77" s="152"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="135"/>
-      <c r="B78" s="144"/>
-      <c r="C78" s="147" t="s">
-        <v>363</v>
-      </c>
-      <c r="D78" s="147"/>
-      <c r="E78" s="147"/>
-      <c r="F78" s="147"/>
-      <c r="J78" s="151"/>
+      <c r="J78" s="152"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J79" s="151"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="154"/>
-      <c r="B80" s="154"/>
-      <c r="C80" s="154"/>
-      <c r="D80" s="154"/>
-      <c r="E80" s="154"/>
-      <c r="F80" s="154"/>
-      <c r="G80" s="154"/>
-      <c r="H80" s="154"/>
-      <c r="I80" s="154"/>
-    </row>
+      <c r="A79" s="155"/>
+      <c r="B79" s="155"/>
+      <c r="C79" s="155"/>
+      <c r="D79" s="155"/>
+      <c r="E79" s="155"/>
+      <c r="F79" s="155"/>
+      <c r="G79" s="155"/>
+      <c r="H79" s="155"/>
+      <c r="I79" s="155"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C2:G2"/>
@@ -34828,10 +34939,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34919,7 +35030,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -35027,7 +35138,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -35037,7 +35148,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -35233,7 +35344,7 @@
         <v>239</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="123"/>
@@ -35261,7 +35372,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="144" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C26" s="136"/>
       <c r="D26" s="136"/>
@@ -35287,7 +35398,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="147" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C28" s="147"/>
       <c r="D28" s="147"/>
@@ -35313,7 +35424,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="144" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C30" s="136"/>
       <c r="D30" s="136"/>
@@ -35327,7 +35438,7 @@
       <c r="A31" s="135"/>
       <c r="B31" s="136"/>
       <c r="C31" s="144" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="D31" s="136"/>
       <c r="E31" s="136"/>
@@ -35340,7 +35451,7 @@
       <c r="A32" s="135"/>
       <c r="B32" s="138"/>
       <c r="C32" s="144" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -35353,7 +35464,7 @@
       <c r="A33" s="135"/>
       <c r="B33" s="138"/>
       <c r="C33" s="144" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
@@ -35366,7 +35477,7 @@
       <c r="A34" s="135"/>
       <c r="B34" s="138"/>
       <c r="C34" s="144" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="D34" s="136"/>
       <c r="E34" s="136"/>
@@ -35391,7 +35502,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="147" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="147"/>
@@ -35405,7 +35516,7 @@
       <c r="A37" s="88"/>
       <c r="B37" s="147"/>
       <c r="C37" s="144" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D37" s="136"/>
       <c r="E37" s="136"/>
@@ -35425,10 +35536,12 @@
       <c r="H38" s="136"/>
       <c r="I38" s="137"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="135"/>
+    <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="135" t="n">
+        <v>4</v>
+      </c>
       <c r="B39" s="147" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C39" s="147"/>
       <c r="D39" s="147"/>
@@ -35442,7 +35555,7 @@
       <c r="A40" s="135"/>
       <c r="B40" s="147"/>
       <c r="C40" s="144" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D40" s="136"/>
       <c r="E40" s="136"/>
@@ -35473,6 +35586,7 @@
       <c r="H42" s="133"/>
       <c r="I42" s="140"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C2:G2"/>
@@ -35504,8 +35618,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35591,7 +35705,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -35699,7 +35813,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -35709,7 +35823,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -35905,7 +36019,7 @@
         <v>239</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="123"/>
@@ -35933,7 +36047,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="144" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C26" s="136"/>
       <c r="D26" s="136"/>
@@ -35954,12 +36068,12 @@
       <c r="H27" s="136"/>
       <c r="I27" s="137"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="135" t="n">
         <v>2</v>
       </c>
       <c r="B28" s="147" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C28" s="147"/>
       <c r="D28" s="147"/>
@@ -35985,7 +36099,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="144" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C30" s="136"/>
       <c r="D30" s="136"/>
@@ -35995,11 +36109,11 @@
       <c r="H30" s="136"/>
       <c r="I30" s="137"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="135"/>
       <c r="B31" s="136"/>
       <c r="C31" s="144" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D31" s="136"/>
       <c r="E31" s="136"/>
@@ -36012,7 +36126,7 @@
       <c r="A32" s="135"/>
       <c r="B32" s="138"/>
       <c r="C32" s="144" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -36025,7 +36139,7 @@
       <c r="A33" s="135"/>
       <c r="B33" s="138"/>
       <c r="C33" s="144" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
@@ -36038,7 +36152,7 @@
       <c r="A34" s="135"/>
       <c r="B34" s="138"/>
       <c r="C34" s="144" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="D34" s="136"/>
       <c r="E34" s="136"/>
@@ -36059,63 +36173,63 @@
       <c r="I35" s="137"/>
     </row>
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="155" t="n">
+      <c r="A36" s="156" t="n">
         <v>4</v>
       </c>
-      <c r="B36" s="156" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
+      <c r="B36" s="157" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
       <c r="F36" s="136"/>
       <c r="G36" s="136"/>
       <c r="H36" s="136"/>
       <c r="I36" s="137"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="156"/>
-      <c r="C37" s="156" t="s">
-        <v>383</v>
-      </c>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
       <c r="F37" s="136"/>
       <c r="G37" s="136"/>
       <c r="H37" s="136"/>
       <c r="I37" s="137"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
       <c r="F38" s="136"/>
       <c r="G38" s="136"/>
       <c r="H38" s="136"/>
       <c r="I38" s="137"/>
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="155"/>
-      <c r="B39" s="156" t="s">
-        <v>306</v>
-      </c>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="157" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
       <c r="F39" s="136"/>
       <c r="G39" s="136"/>
       <c r="H39" s="136"/>
       <c r="I39" s="137"/>
     </row>
     <row r="40" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="155"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156" t="s">
-        <v>384</v>
-      </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
+      <c r="A40" s="156"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157" t="s">
+        <v>393</v>
+      </c>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
       <c r="F40" s="136"/>
       <c r="G40" s="136"/>
       <c r="H40" s="136"/>
@@ -36263,7 +36377,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -36371,7 +36485,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -36381,7 +36495,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -36392,17 +36506,17 @@
       <c r="I12" s="99"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="149" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="116" t="s">
@@ -36474,7 +36588,7 @@
       <c r="A18" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="150" t="s">
         <v>247</v>
       </c>
       <c r="C18" s="123"/>
@@ -36576,16 +36690,16 @@
       <c r="A24" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="150" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
+      <c r="B24" s="151" t="s">
+        <v>396</v>
+      </c>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="135" t="s">
@@ -36605,7 +36719,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="136" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C26" s="136"/>
       <c r="D26" s="136"/>
@@ -36618,7 +36732,7 @@
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="135"/>
       <c r="B27" s="136" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C27" s="136"/>
       <c r="D27" s="136"/>
@@ -36644,7 +36758,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="144" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C29" s="136"/>
       <c r="D29" s="136"/>
@@ -37058,10 +37172,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37147,7 +37261,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -37255,7 +37369,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -37265,7 +37379,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -37461,7 +37575,7 @@
         <v>239</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="123"/>
@@ -37488,11 +37602,11 @@
       <c r="A26" s="135" t="n">
         <v>1</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>395</v>
-      </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="B26" s="147" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="136"/>
       <c r="F26" s="136"/>
       <c r="G26" s="136"/>
@@ -37502,7 +37616,7 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="135"/>
       <c r="B27" s="136"/>
-      <c r="C27" s="88"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="136"/>
       <c r="E27" s="136"/>
       <c r="F27" s="136"/>
@@ -37514,11 +37628,11 @@
       <c r="A28" s="135" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="147" t="s">
-        <v>396</v>
-      </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
+      <c r="B28" s="144" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
       <c r="E28" s="136"/>
       <c r="F28" s="136"/>
       <c r="G28" s="136"/>
@@ -37528,7 +37642,9 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="135"/>
       <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
+      <c r="C29" s="144" t="s">
+        <v>406</v>
+      </c>
       <c r="D29" s="136"/>
       <c r="E29" s="136"/>
       <c r="F29" s="136"/>
@@ -37537,13 +37653,11 @@
       <c r="I29" s="137"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="135" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="144" t="s">
-        <v>397</v>
-      </c>
-      <c r="C30" s="136"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="144" t="s">
+        <v>407</v>
+      </c>
       <c r="D30" s="136"/>
       <c r="E30" s="136"/>
       <c r="F30" s="136"/>
@@ -37551,11 +37665,11 @@
       <c r="H30" s="136"/>
       <c r="I30" s="137"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="135"/>
-      <c r="B31" s="136"/>
+      <c r="B31" s="138"/>
       <c r="C31" s="144" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D31" s="136"/>
       <c r="E31" s="136"/>
@@ -37568,7 +37682,7 @@
       <c r="A32" s="135"/>
       <c r="B32" s="138"/>
       <c r="C32" s="144" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -37579,10 +37693,8 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="135"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="144" t="s">
-        <v>400</v>
-      </c>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
       <c r="F33" s="136"/>
@@ -37591,22 +37703,26 @@
       <c r="I33" s="137"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="135"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
+      <c r="A34" s="135" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="147" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
       <c r="F34" s="136"/>
       <c r="G34" s="136"/>
       <c r="H34" s="136"/>
       <c r="I34" s="137"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="135"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="144" t="s">
+        <v>304</v>
+      </c>
       <c r="D35" s="136"/>
       <c r="E35" s="136"/>
       <c r="F35" s="136"/>
@@ -37615,12 +37731,8 @@
       <c r="I35" s="137"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="135" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" s="147" t="s">
-        <v>305</v>
-      </c>
+      <c r="A36" s="88"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="147"/>
       <c r="D36" s="147"/>
       <c r="E36" s="147"/>
@@ -37630,24 +37742,26 @@
       <c r="I36" s="137"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="88"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="144" t="s">
-        <v>292</v>
-      </c>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
       <c r="F37" s="136"/>
       <c r="G37" s="136"/>
       <c r="H37" s="136"/>
       <c r="I37" s="137"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="88"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="147"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
+      <c r="C38" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="136"/>
       <c r="G38" s="136"/>
       <c r="H38" s="136"/>
@@ -37655,52 +37769,28 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="135"/>
-      <c r="B39" s="147" t="s">
-        <v>401</v>
-      </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="136"/>
       <c r="G39" s="136"/>
       <c r="H39" s="136"/>
       <c r="I39" s="137"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="135"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="144" t="s">
-        <v>402</v>
-      </c>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="137"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="135"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="137"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="139"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="140"/>
-    </row>
+      <c r="A40" s="139"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="140"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C2:G2"/>
@@ -37730,10 +37820,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37819,7 +37909,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -37927,7 +38017,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="143" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="114"/>
@@ -37937,7 +38027,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -38133,7 +38223,7 @@
         <v>239</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="123"/>
@@ -38160,11 +38250,11 @@
       <c r="A26" s="135" t="n">
         <v>1</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="B26" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="136"/>
       <c r="F26" s="136"/>
       <c r="G26" s="136"/>
@@ -38174,7 +38264,7 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="135"/>
       <c r="B27" s="136"/>
-      <c r="C27" s="88"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="136"/>
       <c r="E27" s="136"/>
       <c r="F27" s="136"/>
@@ -38186,11 +38276,11 @@
       <c r="A28" s="135" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="147" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
+      <c r="B28" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
       <c r="E28" s="136"/>
       <c r="F28" s="136"/>
       <c r="G28" s="136"/>
@@ -38200,7 +38290,9 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="135"/>
       <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
+      <c r="C29" s="144" t="s">
+        <v>417</v>
+      </c>
       <c r="D29" s="136"/>
       <c r="E29" s="136"/>
       <c r="F29" s="136"/>
@@ -38209,13 +38301,11 @@
       <c r="I29" s="137"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="135" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="144" t="s">
-        <v>409</v>
-      </c>
-      <c r="C30" s="136"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="144" t="s">
+        <v>418</v>
+      </c>
       <c r="D30" s="136"/>
       <c r="E30" s="136"/>
       <c r="F30" s="136"/>
@@ -38225,9 +38315,9 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="135"/>
-      <c r="B31" s="136"/>
+      <c r="B31" s="138"/>
       <c r="C31" s="144" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D31" s="136"/>
       <c r="E31" s="136"/>
@@ -38240,7 +38330,7 @@
       <c r="A32" s="135"/>
       <c r="B32" s="138"/>
       <c r="C32" s="144" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -38251,10 +38341,8 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="135"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="144" t="s">
-        <v>412</v>
-      </c>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
       <c r="F33" s="136"/>
@@ -38262,115 +38350,93 @@
       <c r="H33" s="136"/>
       <c r="I33" s="137"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="135"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
+    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="156" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="157" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
       <c r="F34" s="136"/>
       <c r="G34" s="136"/>
       <c r="H34" s="136"/>
       <c r="I34" s="137"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="135"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
       <c r="F35" s="136"/>
       <c r="G35" s="136"/>
       <c r="H35" s="136"/>
       <c r="I35" s="137"/>
     </row>
-    <row r="36" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="155" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" s="156" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
       <c r="F36" s="136"/>
       <c r="G36" s="136"/>
       <c r="H36" s="136"/>
       <c r="I36" s="137"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="156"/>
-      <c r="C37" s="156" t="s">
-        <v>413</v>
-      </c>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
+    <row r="37" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="156"/>
+      <c r="B37" s="157" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
       <c r="F37" s="136"/>
       <c r="G37" s="136"/>
       <c r="H37" s="136"/>
       <c r="I37" s="137"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
+    <row r="38" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="156"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157" t="s">
+        <v>421</v>
+      </c>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
       <c r="F38" s="136"/>
       <c r="G38" s="136"/>
       <c r="H38" s="136"/>
       <c r="I38" s="137"/>
     </row>
-    <row r="39" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="155"/>
-      <c r="B39" s="156" t="s">
-        <v>401</v>
-      </c>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="135"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="136"/>
       <c r="G39" s="136"/>
       <c r="H39" s="136"/>
       <c r="I39" s="137"/>
     </row>
-    <row r="40" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="155"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156" t="s">
-        <v>414</v>
-      </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="137"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="135"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="137"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="139"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="140"/>
-    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="139"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="140"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C2:G2"/>
@@ -38400,952 +38466,1712 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="157" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="158" width="10.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="161"/>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="163" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="164" t="s">
+      <c r="C2" s="164" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="166" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="166"/>
-      <c r="B3" s="162" t="s">
+      <c r="A3" s="167"/>
+      <c r="B3" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="164" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="168" t="n">
+      <c r="I3" s="169" t="n">
         <v>43983</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="166"/>
-      <c r="B4" s="162" t="s">
+      <c r="A4" s="167"/>
+      <c r="B4" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="169" t="s">
-        <v>416</v>
-      </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="164" t="s">
+      <c r="C4" s="170" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="171"/>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="169" t="s">
-        <v>417</v>
-      </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="164" t="s">
+      <c r="C5" s="170" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="170"/>
+      <c r="I5" s="171"/>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="172"/>
-      <c r="B6" s="162" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="168" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="164" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="170"/>
+      <c r="I6" s="171"/>
     </row>
     <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="174" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="176" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="175" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="177" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="171"/>
+    </row>
+    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="175" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="179" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="171"/>
+    </row>
+    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="175" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="180" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="183" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="182"/>
+    </row>
+    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="185" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="181"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="175" t="s">
+        <v>426</v>
+      </c>
+      <c r="F11" s="175"/>
+      <c r="G11" s="186" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" s="187"/>
+      <c r="I11" s="188"/>
+    </row>
+    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="175" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="171"/>
+    </row>
+    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="174" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+    </row>
+    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="189" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="190" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="191" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="192"/>
+      <c r="E14" s="191" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="193"/>
+      <c r="I14" s="192"/>
+    </row>
+    <row r="15" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="194" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="195"/>
+      <c r="E15" s="194" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="195"/>
+      <c r="G15" s="194" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="196"/>
+      <c r="I15" s="195"/>
+    </row>
+    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="197"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="195"/>
+    </row>
+    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="174" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+    </row>
+    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="175" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="199" t="s">
+        <v>429</v>
+      </c>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="195"/>
+    </row>
+    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="200" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="180" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="201" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="202" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="171"/>
+    </row>
+    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="200" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="203" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="192"/>
+    </row>
+    <row r="21" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="202" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="178"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="206" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="171"/>
+    </row>
+    <row r="22" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="203" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="202" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="178"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="171"/>
+    </row>
+    <row r="23" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="203" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="202" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="178"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="178" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="195"/>
+    </row>
+    <row r="24" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="207" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="208"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="209"/>
+    </row>
+    <row r="25" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="210" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="212"/>
+    </row>
+    <row r="26" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="210"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="212"/>
+    </row>
+    <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="210" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="213" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="212"/>
+    </row>
+    <row r="28" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="210"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="212"/>
+    </row>
+    <row r="29" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="210" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="213" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="211"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="212"/>
+    </row>
+    <row r="30" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="210"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
+    </row>
+    <row r="31" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="210" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="213" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" s="211"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="212"/>
+    </row>
+    <row r="32" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="210"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="213" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="212"/>
+    </row>
+    <row r="33" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="210"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="213" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="212"/>
+    </row>
+    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="210"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="213" t="s">
+        <v>435</v>
+      </c>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="212"/>
+    </row>
+    <row r="35" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="210"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="213" t="s">
+        <v>436</v>
+      </c>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="212"/>
+    </row>
+    <row r="36" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="210"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="212"/>
+    </row>
+    <row r="37" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="210" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="215" t="s">
+        <v>437</v>
+      </c>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="212"/>
+    </row>
+    <row r="38" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="210"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="213" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="212"/>
+    </row>
+    <row r="39" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="210"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="211"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="212"/>
+    </row>
+    <row r="40" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="210"/>
+      <c r="B40" s="215" t="s">
+        <v>438</v>
+      </c>
+      <c r="C40" s="215"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="212"/>
+    </row>
+    <row r="41" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="210"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="213" t="s">
+        <v>410</v>
+      </c>
+      <c r="D41" s="211"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="211"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="211"/>
+      <c r="I41" s="212"/>
+    </row>
+    <row r="42" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="210"/>
+      <c r="B42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="211"/>
+      <c r="F42" s="211"/>
+      <c r="G42" s="211"/>
+      <c r="H42" s="211"/>
+      <c r="I42" s="212"/>
+    </row>
+    <row r="43" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="210"/>
+      <c r="B43" s="213"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="211"/>
+      <c r="E43" s="211"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="211"/>
+      <c r="I43" s="212"/>
+    </row>
+    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="210"/>
+      <c r="B44" s="213"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="211"/>
+      <c r="I44" s="212"/>
+    </row>
+    <row r="45" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="206"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="211"/>
+      <c r="E45" s="211"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="211"/>
+      <c r="H45" s="211"/>
+      <c r="I45" s="212"/>
+    </row>
+    <row r="46" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="206"/>
+      <c r="B46" s="206"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="211"/>
+      <c r="F46" s="211"/>
+      <c r="G46" s="211"/>
+      <c r="H46" s="211"/>
+      <c r="I46" s="212"/>
+    </row>
+    <row r="47" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="210"/>
+      <c r="B47" s="211"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
+      <c r="G47" s="211"/>
+      <c r="H47" s="211"/>
+      <c r="I47" s="212"/>
+    </row>
+    <row r="48" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="210"/>
+      <c r="B48" s="211"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="212"/>
+    </row>
+    <row r="49" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="210"/>
+      <c r="B49" s="211"/>
+      <c r="C49" s="211"/>
+      <c r="D49" s="211"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="211"/>
+      <c r="G49" s="211"/>
+      <c r="H49" s="211"/>
+      <c r="I49" s="212"/>
+    </row>
+    <row r="50" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="216"/>
+      <c r="B50" s="208"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="208"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="208"/>
+      <c r="G50" s="208"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="217"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A17:I17"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H55" activeCellId="0" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="158" width="10.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="159" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="161"/>
+    </row>
+    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="167"/>
+      <c r="B3" s="163" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="169" t="n">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="167"/>
+      <c r="B4" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="170" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="171"/>
+    </row>
+    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="172" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="170" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="171"/>
+    </row>
+    <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="173"/>
+      <c r="B6" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="168" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="171"/>
+    </row>
+    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+    </row>
+    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="174" t="s">
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="175" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="176" t="s">
+      <c r="F8" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="170"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="171"/>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="174" t="s">
+      <c r="A9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="175" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="178" t="s">
-        <v>418</v>
-      </c>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="170"/>
+      <c r="F9" s="179" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="171"/>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="175" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="180" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="182" t="s">
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="182"/>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="174" t="s">
-        <v>419</v>
-      </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="185" t="s">
-        <v>420</v>
-      </c>
-      <c r="H11" s="186"/>
-      <c r="I11" s="187"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="175" t="s">
+        <v>426</v>
+      </c>
+      <c r="F11" s="175"/>
+      <c r="G11" s="186" t="s">
+        <v>440</v>
+      </c>
+      <c r="H11" s="187"/>
+      <c r="I11" s="188"/>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="176" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="170"/>
+      <c r="B12" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="171"/>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="174" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="189" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="190" t="s">
+      <c r="C14" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="191"/>
-      <c r="E14" s="190" t="s">
+      <c r="D14" s="192"/>
+      <c r="E14" s="191" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="191"/>
-      <c r="G14" s="192" t="s">
+      <c r="F14" s="192"/>
+      <c r="G14" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="H14" s="192"/>
-      <c r="I14" s="191"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="192"/>
     </row>
     <row r="15" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="193" t="s">
+      <c r="D15" s="195"/>
+      <c r="E15" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="194"/>
-      <c r="G15" s="193" t="s">
+      <c r="F15" s="195"/>
+      <c r="G15" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="195"/>
-      <c r="I15" s="194"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="195"/>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="218" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="219" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="200"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="209"/>
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="201" t="s">
+      <c r="A18" s="221" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="222" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="204" t="s">
+      <c r="D18" s="223"/>
+      <c r="E18" s="224" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="205" t="s">
+      <c r="F18" s="225" t="s">
         <v>228</v>
       </c>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="206"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="226"/>
     </row>
     <row r="19" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="207" t="s">
+      <c r="A19" s="227" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="228" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211" t="s">
+      <c r="C19" s="229"/>
+      <c r="D19" s="230"/>
+      <c r="E19" s="231" t="s">
         <v>218</v>
       </c>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="212"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="232"/>
     </row>
     <row r="20" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="228" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="213" t="s">
+      <c r="B20" s="233" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="157" t="s">
+      <c r="C20" s="225"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="F20" s="205"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="206"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="226"/>
     </row>
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="234" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="215" t="s">
+      <c r="B21" s="235" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="216" t="s">
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="236" t="s">
         <v>235</v>
       </c>
-      <c r="F21" s="216"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="206"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="226"/>
     </row>
     <row r="22" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="234" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="215" t="s">
+      <c r="B22" s="235" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="216" t="s">
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="236" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="216"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="200"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="209"/>
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="218" t="s">
+      <c r="A23" s="238" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="219" t="s">
-        <v>422</v>
-      </c>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
+      <c r="B23" s="239" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="209"/>
     </row>
     <row r="24" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="240" t="s">
         <v>241</v>
       </c>
-      <c r="I24" s="203"/>
+      <c r="I24" s="223"/>
     </row>
     <row r="25" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="202" t="n">
+      <c r="A25" s="222" t="n">
         <v>1</v>
       </c>
-      <c r="B25" s="221" t="s">
-        <v>423</v>
-      </c>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="221"/>
-      <c r="I25" s="203"/>
+      <c r="B25" s="241" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="I25" s="223"/>
     </row>
     <row r="26" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="202"/>
-      <c r="I26" s="203"/>
+      <c r="A26" s="222"/>
+      <c r="I26" s="223"/>
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="202"/>
-      <c r="B27" s="221"/>
-      <c r="I27" s="203"/>
+      <c r="A27" s="222"/>
+      <c r="B27" s="241"/>
+      <c r="I27" s="223"/>
     </row>
     <row r="28" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="202"/>
-      <c r="I28" s="203"/>
+      <c r="A28" s="222"/>
+      <c r="I28" s="223"/>
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="202"/>
-      <c r="B29" s="221"/>
-      <c r="I29" s="203"/>
+      <c r="A29" s="222"/>
+      <c r="B29" s="241"/>
+      <c r="I29" s="223"/>
     </row>
     <row r="30" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="202"/>
-      <c r="C30" s="221"/>
-      <c r="I30" s="203"/>
+      <c r="A30" s="222"/>
+      <c r="C30" s="241"/>
+      <c r="I30" s="223"/>
     </row>
     <row r="31" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="202"/>
-      <c r="B31" s="222"/>
-      <c r="C31" s="221"/>
-      <c r="I31" s="203"/>
+      <c r="A31" s="222"/>
+      <c r="B31" s="242"/>
+      <c r="C31" s="241"/>
+      <c r="I31" s="223"/>
     </row>
     <row r="32" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="202"/>
-      <c r="B32" s="222"/>
-      <c r="C32" s="221"/>
-      <c r="I32" s="203"/>
+      <c r="A32" s="222"/>
+      <c r="B32" s="242"/>
+      <c r="C32" s="241"/>
+      <c r="I32" s="223"/>
     </row>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="202"/>
-      <c r="B33" s="222"/>
-      <c r="C33" s="221"/>
-      <c r="I33" s="203"/>
+      <c r="A33" s="222"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="241"/>
+      <c r="I33" s="223"/>
     </row>
     <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="173" t="s">
+      <c r="A34" s="174" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="173"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
     </row>
     <row r="35" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="174" t="s">
+      <c r="A35" s="175" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="223" t="s">
-        <v>424</v>
-      </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="194"/>
+      <c r="B35" s="199" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="195"/>
     </row>
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="200" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="225" t="s">
+      <c r="C36" s="181"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="201" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="226" t="s">
+      <c r="F36" s="202" t="s">
         <v>228</v>
       </c>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="170"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="171"/>
     </row>
     <row r="37" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="224" t="s">
+      <c r="A37" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="227" t="s">
+      <c r="B37" s="203" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="228"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="192" t="s">
+      <c r="C37" s="204"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="191"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="192"/>
     </row>
     <row r="38" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="227" t="s">
+      <c r="A38" s="203" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="202" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="230" t="s">
+      <c r="C38" s="178"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="206" t="s">
         <v>232</v>
       </c>
-      <c r="F38" s="177"/>
-      <c r="G38" s="177"/>
-      <c r="H38" s="177"/>
-      <c r="I38" s="170"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="171"/>
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="227" t="s">
+      <c r="A39" s="203" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="226" t="s">
+      <c r="B39" s="202" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="177"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="177" t="s">
+      <c r="C39" s="178"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="170"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="171"/>
     </row>
     <row r="40" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="227" t="s">
+      <c r="A40" s="203" t="s">
         <v>236</v>
       </c>
-      <c r="B40" s="226" t="s">
+      <c r="B40" s="202" t="s">
         <v>237</v>
       </c>
-      <c r="C40" s="177"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="177" t="s">
+      <c r="C40" s="178"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="178" t="s">
         <v>238</v>
       </c>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="194"/>
+      <c r="F40" s="196"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="163" t="s">
         <v>239</v>
       </c>
-      <c r="B41" s="231" t="s">
-        <v>421</v>
-      </c>
-      <c r="C41" s="232"/>
-      <c r="D41" s="199"/>
-      <c r="E41" s="199"/>
-      <c r="F41" s="199"/>
-      <c r="G41" s="199"/>
-      <c r="H41" s="199"/>
-      <c r="I41" s="200"/>
+      <c r="B41" s="207" t="s">
+        <v>428</v>
+      </c>
+      <c r="C41" s="208"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="209"/>
     </row>
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="233" t="s">
+      <c r="A42" s="210" t="s">
         <v>241</v>
       </c>
-      <c r="B42" s="234"/>
-      <c r="C42" s="234"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="234"/>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="235"/>
+      <c r="B42" s="211"/>
+      <c r="C42" s="211"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="211"/>
+      <c r="F42" s="211"/>
+      <c r="G42" s="211"/>
+      <c r="H42" s="211"/>
+      <c r="I42" s="212"/>
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="233"/>
-      <c r="B43" s="234"/>
-      <c r="C43" s="230"/>
-      <c r="D43" s="234"/>
-      <c r="E43" s="234"/>
-      <c r="F43" s="234"/>
-      <c r="G43" s="234"/>
-      <c r="H43" s="234"/>
-      <c r="I43" s="235"/>
+      <c r="A43" s="210"/>
+      <c r="B43" s="211"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="211"/>
+      <c r="E43" s="211"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="211"/>
+      <c r="I43" s="212"/>
     </row>
     <row r="44" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="233" t="n">
+      <c r="A44" s="210" t="n">
         <v>1</v>
       </c>
-      <c r="B44" s="236" t="s">
-        <v>425</v>
-      </c>
-      <c r="C44" s="234"/>
-      <c r="D44" s="234"/>
-      <c r="E44" s="234"/>
-      <c r="F44" s="234"/>
-      <c r="G44" s="234"/>
-      <c r="H44" s="234"/>
-      <c r="I44" s="235"/>
+      <c r="B44" s="213" t="s">
+        <v>443</v>
+      </c>
+      <c r="C44" s="211"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="211"/>
+      <c r="I44" s="212"/>
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="233"/>
-      <c r="B45" s="236"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="235"/>
+      <c r="A45" s="210"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="211"/>
+      <c r="E45" s="211"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="211"/>
+      <c r="H45" s="211"/>
+      <c r="I45" s="212"/>
     </row>
     <row r="46" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="233" t="n">
+      <c r="A46" s="210" t="n">
         <v>2</v>
       </c>
-      <c r="B46" s="236" t="s">
-        <v>426</v>
-      </c>
-      <c r="C46" s="234"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="235"/>
+      <c r="B46" s="213" t="s">
+        <v>444</v>
+      </c>
+      <c r="C46" s="211"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="211"/>
+      <c r="F46" s="211"/>
+      <c r="G46" s="211"/>
+      <c r="H46" s="211"/>
+      <c r="I46" s="212"/>
     </row>
     <row r="47" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="233"/>
-      <c r="B47" s="236" t="s">
-        <v>427</v>
-      </c>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="235"/>
+      <c r="A47" s="210"/>
+      <c r="B47" s="213" t="s">
+        <v>445</v>
+      </c>
+      <c r="C47" s="211"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
+      <c r="G47" s="211"/>
+      <c r="H47" s="211"/>
+      <c r="I47" s="212"/>
     </row>
     <row r="48" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="233"/>
-      <c r="B48" s="236"/>
-      <c r="C48" s="234"/>
-      <c r="D48" s="234"/>
-      <c r="E48" s="234"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="235"/>
+      <c r="A48" s="210"/>
+      <c r="B48" s="213"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="212"/>
     </row>
     <row r="49" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="233" t="n">
+      <c r="A49" s="210" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="236" t="s">
-        <v>425</v>
-      </c>
-      <c r="C49" s="234"/>
-      <c r="D49" s="234"/>
-      <c r="E49" s="234"/>
-      <c r="F49" s="234"/>
-      <c r="G49" s="234"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="235"/>
+      <c r="B49" s="213" t="s">
+        <v>443</v>
+      </c>
+      <c r="C49" s="211"/>
+      <c r="D49" s="211"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="211"/>
+      <c r="G49" s="211"/>
+      <c r="H49" s="211"/>
+      <c r="I49" s="212"/>
     </row>
     <row r="50" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="233"/>
-      <c r="B50" s="236"/>
-      <c r="C50" s="234"/>
-      <c r="D50" s="234"/>
-      <c r="E50" s="234"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="234"/>
-      <c r="H50" s="234"/>
-      <c r="I50" s="235"/>
+      <c r="A50" s="210"/>
+      <c r="B50" s="213"/>
+      <c r="C50" s="211"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="211"/>
+      <c r="G50" s="211"/>
+      <c r="H50" s="211"/>
+      <c r="I50" s="212"/>
     </row>
     <row r="51" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="233" t="n">
+      <c r="A51" s="210" t="n">
         <v>2</v>
       </c>
-      <c r="B51" s="236" t="s">
-        <v>428</v>
-      </c>
-      <c r="C51" s="234"/>
-      <c r="D51" s="234"/>
-      <c r="E51" s="234"/>
-      <c r="F51" s="234"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="235"/>
+      <c r="B51" s="213" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" s="211"/>
+      <c r="D51" s="211"/>
+      <c r="E51" s="211"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="211"/>
+      <c r="H51" s="211"/>
+      <c r="I51" s="212"/>
     </row>
     <row r="52" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="233"/>
-      <c r="B52" s="234"/>
-      <c r="C52" s="236" t="s">
-        <v>429</v>
-      </c>
-      <c r="D52" s="234"/>
-      <c r="E52" s="234"/>
-      <c r="F52" s="234"/>
-      <c r="G52" s="234"/>
-      <c r="H52" s="234"/>
-      <c r="I52" s="235"/>
+      <c r="A52" s="210"/>
+      <c r="B52" s="211"/>
+      <c r="C52" s="213" t="s">
+        <v>446</v>
+      </c>
+      <c r="D52" s="211"/>
+      <c r="E52" s="211"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="211"/>
+      <c r="H52" s="211"/>
+      <c r="I52" s="212"/>
     </row>
     <row r="53" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="233"/>
-      <c r="B53" s="237"/>
-      <c r="C53" s="236" t="s">
-        <v>430</v>
-      </c>
-      <c r="D53" s="234"/>
-      <c r="E53" s="234"/>
-      <c r="F53" s="234"/>
-      <c r="G53" s="234"/>
-      <c r="H53" s="234"/>
-      <c r="I53" s="235"/>
+      <c r="A53" s="210"/>
+      <c r="B53" s="214"/>
+      <c r="C53" s="213" t="s">
+        <v>447</v>
+      </c>
+      <c r="D53" s="211"/>
+      <c r="E53" s="211"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="211"/>
+      <c r="H53" s="211"/>
+      <c r="I53" s="212"/>
     </row>
     <row r="54" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="233"/>
-      <c r="B54" s="237"/>
-      <c r="C54" s="236" t="s">
-        <v>431</v>
-      </c>
-      <c r="D54" s="234"/>
-      <c r="E54" s="234"/>
-      <c r="F54" s="234"/>
-      <c r="G54" s="234"/>
-      <c r="H54" s="234"/>
-      <c r="I54" s="235"/>
+      <c r="A54" s="210"/>
+      <c r="B54" s="214"/>
+      <c r="C54" s="213" t="s">
+        <v>448</v>
+      </c>
+      <c r="D54" s="211"/>
+      <c r="E54" s="211"/>
+      <c r="F54" s="211"/>
+      <c r="G54" s="211"/>
+      <c r="H54" s="211"/>
+      <c r="I54" s="212"/>
     </row>
     <row r="55" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="233"/>
-      <c r="B55" s="237"/>
-      <c r="C55" s="236" t="s">
-        <v>432</v>
-      </c>
-      <c r="D55" s="234"/>
-      <c r="E55" s="234"/>
-      <c r="F55" s="234"/>
-      <c r="G55" s="234"/>
-      <c r="H55" s="234"/>
-      <c r="I55" s="235"/>
+      <c r="A55" s="210"/>
+      <c r="B55" s="214"/>
+      <c r="C55" s="213" t="s">
+        <v>449</v>
+      </c>
+      <c r="D55" s="211"/>
+      <c r="E55" s="211"/>
+      <c r="F55" s="211"/>
+      <c r="G55" s="211"/>
+      <c r="H55" s="211"/>
+      <c r="I55" s="212"/>
     </row>
     <row r="56" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="233"/>
-      <c r="B56" s="234"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="234"/>
-      <c r="E56" s="234"/>
-      <c r="F56" s="234"/>
-      <c r="G56" s="234"/>
-      <c r="H56" s="234"/>
-      <c r="I56" s="235"/>
+      <c r="A56" s="210"/>
+      <c r="B56" s="211"/>
+      <c r="C56" s="211"/>
+      <c r="D56" s="211"/>
+      <c r="E56" s="211"/>
+      <c r="F56" s="211"/>
+      <c r="G56" s="211"/>
+      <c r="H56" s="211"/>
+      <c r="I56" s="212"/>
     </row>
     <row r="57" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="233" t="n">
+      <c r="A57" s="210" t="n">
         <v>3</v>
       </c>
-      <c r="B57" s="238" t="s">
-        <v>433</v>
-      </c>
-      <c r="C57" s="238"/>
-      <c r="D57" s="238"/>
-      <c r="E57" s="238"/>
-      <c r="F57" s="234"/>
-      <c r="G57" s="234"/>
-      <c r="H57" s="234"/>
-      <c r="I57" s="235"/>
+      <c r="B57" s="215" t="s">
+        <v>450</v>
+      </c>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="211"/>
+      <c r="G57" s="211"/>
+      <c r="H57" s="211"/>
+      <c r="I57" s="212"/>
     </row>
     <row r="58" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="233"/>
-      <c r="B58" s="238"/>
-      <c r="C58" s="236" t="s">
-        <v>292</v>
-      </c>
-      <c r="D58" s="234"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="234"/>
-      <c r="G58" s="234"/>
-      <c r="H58" s="234"/>
-      <c r="I58" s="235"/>
+      <c r="A58" s="210"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="213" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" s="211"/>
+      <c r="E58" s="211"/>
+      <c r="F58" s="211"/>
+      <c r="G58" s="211"/>
+      <c r="H58" s="211"/>
+      <c r="I58" s="212"/>
     </row>
     <row r="59" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="233"/>
-      <c r="B59" s="238"/>
-      <c r="C59" s="238"/>
-      <c r="D59" s="238"/>
-      <c r="E59" s="238"/>
-      <c r="F59" s="234"/>
-      <c r="G59" s="234"/>
-      <c r="H59" s="234"/>
-      <c r="I59" s="235"/>
+      <c r="A59" s="210"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
+      <c r="F59" s="211"/>
+      <c r="G59" s="211"/>
+      <c r="H59" s="211"/>
+      <c r="I59" s="212"/>
     </row>
     <row r="60" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="233"/>
-      <c r="B60" s="238" t="s">
-        <v>434</v>
-      </c>
-      <c r="C60" s="238"/>
-      <c r="D60" s="238"/>
-      <c r="E60" s="238"/>
-      <c r="F60" s="234"/>
-      <c r="G60" s="234"/>
-      <c r="H60" s="234"/>
-      <c r="I60" s="235"/>
+      <c r="A60" s="210"/>
+      <c r="B60" s="215" t="s">
+        <v>451</v>
+      </c>
+      <c r="C60" s="215"/>
+      <c r="D60" s="215"/>
+      <c r="E60" s="215"/>
+      <c r="F60" s="211"/>
+      <c r="G60" s="211"/>
+      <c r="H60" s="211"/>
+      <c r="I60" s="212"/>
     </row>
     <row r="61" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="233"/>
-      <c r="B61" s="238"/>
-      <c r="C61" s="236" t="s">
-        <v>402</v>
-      </c>
-      <c r="D61" s="234"/>
-      <c r="E61" s="234"/>
-      <c r="F61" s="234"/>
-      <c r="G61" s="234"/>
-      <c r="H61" s="234"/>
-      <c r="I61" s="235"/>
+      <c r="A61" s="210"/>
+      <c r="B61" s="215"/>
+      <c r="C61" s="213" t="s">
+        <v>410</v>
+      </c>
+      <c r="D61" s="211"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="211"/>
+      <c r="G61" s="211"/>
+      <c r="H61" s="211"/>
+      <c r="I61" s="212"/>
     </row>
     <row r="62" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="233"/>
-      <c r="B62" s="236"/>
-      <c r="C62" s="236"/>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
-      <c r="G62" s="234"/>
-      <c r="H62" s="234"/>
-      <c r="I62" s="235"/>
+      <c r="A62" s="210"/>
+      <c r="B62" s="213"/>
+      <c r="C62" s="213"/>
+      <c r="D62" s="211"/>
+      <c r="E62" s="211"/>
+      <c r="F62" s="211"/>
+      <c r="G62" s="211"/>
+      <c r="H62" s="211"/>
+      <c r="I62" s="212"/>
     </row>
     <row r="63" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="233"/>
-      <c r="B63" s="236"/>
-      <c r="C63" s="234"/>
-      <c r="D63" s="234"/>
-      <c r="E63" s="234"/>
-      <c r="F63" s="234"/>
-      <c r="G63" s="234"/>
-      <c r="H63" s="234"/>
-      <c r="I63" s="235"/>
+      <c r="A63" s="210"/>
+      <c r="B63" s="213"/>
+      <c r="C63" s="211"/>
+      <c r="D63" s="211"/>
+      <c r="E63" s="211"/>
+      <c r="F63" s="211"/>
+      <c r="G63" s="211"/>
+      <c r="H63" s="211"/>
+      <c r="I63" s="212"/>
     </row>
     <row r="64" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="233"/>
-      <c r="B64" s="236"/>
-      <c r="C64" s="234"/>
-      <c r="D64" s="234"/>
-      <c r="E64" s="234"/>
-      <c r="F64" s="234"/>
-      <c r="G64" s="234"/>
-      <c r="H64" s="234"/>
-      <c r="I64" s="235"/>
+      <c r="A64" s="210"/>
+      <c r="B64" s="213"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="211"/>
+      <c r="E64" s="211"/>
+      <c r="F64" s="211"/>
+      <c r="G64" s="211"/>
+      <c r="H64" s="211"/>
+      <c r="I64" s="212"/>
     </row>
     <row r="65" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="230"/>
-      <c r="B65" s="230"/>
-      <c r="C65" s="230"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
-      <c r="I65" s="235"/>
+      <c r="A65" s="206"/>
+      <c r="B65" s="206"/>
+      <c r="C65" s="206"/>
+      <c r="D65" s="211"/>
+      <c r="E65" s="211"/>
+      <c r="F65" s="211"/>
+      <c r="G65" s="211"/>
+      <c r="H65" s="211"/>
+      <c r="I65" s="212"/>
     </row>
     <row r="66" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="230"/>
-      <c r="B66" s="230"/>
-      <c r="C66" s="230"/>
-      <c r="D66" s="234"/>
-      <c r="E66" s="234"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="234"/>
-      <c r="I66" s="235"/>
+      <c r="A66" s="206"/>
+      <c r="B66" s="206"/>
+      <c r="C66" s="206"/>
+      <c r="D66" s="211"/>
+      <c r="E66" s="211"/>
+      <c r="F66" s="211"/>
+      <c r="G66" s="211"/>
+      <c r="H66" s="211"/>
+      <c r="I66" s="212"/>
     </row>
     <row r="67" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="233"/>
-      <c r="B67" s="234"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="234"/>
-      <c r="E67" s="234"/>
-      <c r="F67" s="234"/>
-      <c r="G67" s="234"/>
-      <c r="H67" s="234"/>
-      <c r="I67" s="235"/>
+      <c r="A67" s="210"/>
+      <c r="B67" s="211"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="211"/>
+      <c r="E67" s="211"/>
+      <c r="F67" s="211"/>
+      <c r="G67" s="211"/>
+      <c r="H67" s="211"/>
+      <c r="I67" s="212"/>
     </row>
     <row r="68" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="233"/>
-      <c r="B68" s="234"/>
-      <c r="C68" s="234"/>
-      <c r="D68" s="234"/>
-      <c r="E68" s="234"/>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="234"/>
-      <c r="I68" s="235"/>
+      <c r="A68" s="210"/>
+      <c r="B68" s="211"/>
+      <c r="C68" s="211"/>
+      <c r="D68" s="211"/>
+      <c r="E68" s="211"/>
+      <c r="F68" s="211"/>
+      <c r="G68" s="211"/>
+      <c r="H68" s="211"/>
+      <c r="I68" s="212"/>
     </row>
     <row r="69" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="233"/>
-      <c r="B69" s="234"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="234"/>
-      <c r="I69" s="235"/>
+      <c r="A69" s="210"/>
+      <c r="B69" s="211"/>
+      <c r="C69" s="211"/>
+      <c r="D69" s="211"/>
+      <c r="E69" s="211"/>
+      <c r="F69" s="211"/>
+      <c r="G69" s="211"/>
+      <c r="H69" s="211"/>
+      <c r="I69" s="212"/>
     </row>
     <row r="70" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="239"/>
-      <c r="B70" s="232"/>
-      <c r="C70" s="232"/>
-      <c r="D70" s="232"/>
-      <c r="E70" s="232"/>
-      <c r="F70" s="232"/>
-      <c r="G70" s="232"/>
-      <c r="H70" s="232"/>
-      <c r="I70" s="240"/>
+      <c r="A70" s="216"/>
+      <c r="B70" s="208"/>
+      <c r="C70" s="208"/>
+      <c r="D70" s="208"/>
+      <c r="E70" s="208"/>
+      <c r="F70" s="208"/>
+      <c r="G70" s="208"/>
+      <c r="H70" s="208"/>
+      <c r="I70" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -39372,766 +40198,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I50"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="157" width="10.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="158" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
-    </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="161" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="163" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="165" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="166"/>
-      <c r="B3" s="162" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="167" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="164" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="168" t="n">
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="166"/>
-      <c r="B4" s="162" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="169" t="s">
-        <v>416</v>
-      </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="170"/>
-    </row>
-    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="171" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="162" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="169" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="164" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="170"/>
-    </row>
-    <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="172"/>
-      <c r="B6" s="162" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="167" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="164" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="170"/>
-    </row>
-    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="173" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-    </row>
-    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="174" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="175" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="174" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="170"/>
-    </row>
-    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="174" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="178" t="s">
-        <v>418</v>
-      </c>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="170"/>
-    </row>
-    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="174" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="179" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="182" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="181"/>
-    </row>
-    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="184" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="174" t="s">
-        <v>419</v>
-      </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="185" t="s">
-        <v>436</v>
-      </c>
-      <c r="H11" s="186"/>
-      <c r="I11" s="187"/>
-    </row>
-    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="174" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="176" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="170"/>
-    </row>
-    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="173" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-    </row>
-    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="188" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="189" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="190" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="191"/>
-      <c r="E14" s="190" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="191"/>
-      <c r="G14" s="192" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="192"/>
-      <c r="I14" s="191"/>
-    </row>
-    <row r="15" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="193" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="193" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="194"/>
-      <c r="G15" s="193" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="195"/>
-      <c r="I15" s="194"/>
-    </row>
-    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="241"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="194"/>
-    </row>
-    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="173" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-    </row>
-    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="174" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="223" t="s">
-        <v>424</v>
-      </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="194"/>
-    </row>
-    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="224" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="179" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="225" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="226" t="s">
-        <v>228</v>
-      </c>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="170"/>
-    </row>
-    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="224" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="227" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="228"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="192" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="191"/>
-    </row>
-    <row r="21" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="227" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" s="226" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="230" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="170"/>
-    </row>
-    <row r="22" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="227" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="226" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="177" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="170"/>
-    </row>
-    <row r="23" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="227" t="s">
-        <v>236</v>
-      </c>
-      <c r="B23" s="226" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="177"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="177" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="194"/>
-    </row>
-    <row r="24" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="162" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="231" t="s">
-        <v>421</v>
-      </c>
-      <c r="C24" s="232"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="200"/>
-    </row>
-    <row r="25" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="233" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="234"/>
-      <c r="C25" s="234"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="234"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="235"/>
-    </row>
-    <row r="26" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="233"/>
-      <c r="B26" s="234"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="235"/>
-    </row>
-    <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="233" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="236" t="s">
-        <v>437</v>
-      </c>
-      <c r="C27" s="234"/>
-      <c r="D27" s="234"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="234"/>
-      <c r="H27" s="234"/>
-      <c r="I27" s="235"/>
-    </row>
-    <row r="28" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="233"/>
-      <c r="B28" s="236"/>
-      <c r="C28" s="234"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="234"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="235"/>
-    </row>
-    <row r="29" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="233" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" s="236" t="s">
-        <v>438</v>
-      </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="235"/>
-    </row>
-    <row r="30" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="233"/>
-      <c r="B30" s="236"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="234"/>
-      <c r="H30" s="234"/>
-      <c r="I30" s="235"/>
-    </row>
-    <row r="31" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="233" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" s="236" t="s">
-        <v>428</v>
-      </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="234"/>
-      <c r="I31" s="235"/>
-    </row>
-    <row r="32" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="233"/>
-      <c r="B32" s="234"/>
-      <c r="C32" s="236" t="s">
-        <v>439</v>
-      </c>
-      <c r="D32" s="234"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="235"/>
-    </row>
-    <row r="33" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="233"/>
-      <c r="B33" s="237"/>
-      <c r="C33" s="236" t="s">
-        <v>440</v>
-      </c>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="234"/>
-      <c r="I33" s="235"/>
-    </row>
-    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="233"/>
-      <c r="B34" s="237"/>
-      <c r="C34" s="236" t="s">
-        <v>441</v>
-      </c>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="235"/>
-    </row>
-    <row r="35" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="233"/>
-      <c r="B35" s="237"/>
-      <c r="C35" s="236" t="s">
-        <v>442</v>
-      </c>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="234"/>
-      <c r="G35" s="234"/>
-      <c r="H35" s="234"/>
-      <c r="I35" s="235"/>
-    </row>
-    <row r="36" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="233"/>
-      <c r="B36" s="234"/>
-      <c r="C36" s="234"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="234"/>
-      <c r="G36" s="234"/>
-      <c r="H36" s="234"/>
-      <c r="I36" s="235"/>
-    </row>
-    <row r="37" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="233" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" s="238" t="s">
-        <v>443</v>
-      </c>
-      <c r="C37" s="238"/>
-      <c r="D37" s="238"/>
-      <c r="E37" s="238"/>
-      <c r="F37" s="234"/>
-      <c r="G37" s="234"/>
-      <c r="H37" s="234"/>
-      <c r="I37" s="235"/>
-    </row>
-    <row r="38" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="233"/>
-      <c r="B38" s="238"/>
-      <c r="C38" s="236" t="s">
-        <v>292</v>
-      </c>
-      <c r="D38" s="234"/>
-      <c r="E38" s="234"/>
-      <c r="F38" s="234"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="235"/>
-    </row>
-    <row r="39" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="233"/>
-      <c r="B39" s="238"/>
-      <c r="C39" s="238"/>
-      <c r="D39" s="238"/>
-      <c r="E39" s="238"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="235"/>
-    </row>
-    <row r="40" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="233"/>
-      <c r="B40" s="238" t="s">
-        <v>444</v>
-      </c>
-      <c r="C40" s="238"/>
-      <c r="D40" s="238"/>
-      <c r="E40" s="238"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="235"/>
-    </row>
-    <row r="41" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="233"/>
-      <c r="B41" s="238"/>
-      <c r="C41" s="236" t="s">
-        <v>402</v>
-      </c>
-      <c r="D41" s="234"/>
-      <c r="E41" s="234"/>
-      <c r="F41" s="234"/>
-      <c r="G41" s="234"/>
-      <c r="H41" s="234"/>
-      <c r="I41" s="235"/>
-    </row>
-    <row r="42" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="233"/>
-      <c r="B42" s="236"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="234"/>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="235"/>
-    </row>
-    <row r="43" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="233"/>
-      <c r="B43" s="236"/>
-      <c r="C43" s="234"/>
-      <c r="D43" s="234"/>
-      <c r="E43" s="234"/>
-      <c r="F43" s="234"/>
-      <c r="G43" s="234"/>
-      <c r="H43" s="234"/>
-      <c r="I43" s="235"/>
-    </row>
-    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="233"/>
-      <c r="B44" s="236"/>
-      <c r="C44" s="234"/>
-      <c r="D44" s="234"/>
-      <c r="E44" s="234"/>
-      <c r="F44" s="234"/>
-      <c r="G44" s="234"/>
-      <c r="H44" s="234"/>
-      <c r="I44" s="235"/>
-    </row>
-    <row r="45" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="230"/>
-      <c r="B45" s="230"/>
-      <c r="C45" s="230"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="235"/>
-    </row>
-    <row r="46" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="230"/>
-      <c r="B46" s="230"/>
-      <c r="C46" s="230"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="235"/>
-    </row>
-    <row r="47" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="233"/>
-      <c r="B47" s="234"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="235"/>
-    </row>
-    <row r="48" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="233"/>
-      <c r="B48" s="234"/>
-      <c r="C48" s="234"/>
-      <c r="D48" s="234"/>
-      <c r="E48" s="234"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="235"/>
-    </row>
-    <row r="49" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="233"/>
-      <c r="B49" s="234"/>
-      <c r="C49" s="234"/>
-      <c r="D49" s="234"/>
-      <c r="E49" s="234"/>
-      <c r="F49" s="234"/>
-      <c r="G49" s="234"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="235"/>
-    </row>
-    <row r="50" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="239"/>
-      <c r="B50" s="232"/>
-      <c r="C50" s="232"/>
-      <c r="D50" s="232"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="232"/>
-      <c r="H50" s="232"/>
-      <c r="I50" s="240"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A17:I17"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -40139,657 +40205,657 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="157" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="158" width="10.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="161"/>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="164" t="s">
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="166" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="166"/>
-      <c r="B3" s="162" t="s">
+      <c r="A3" s="167"/>
+      <c r="B3" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="164" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="168" t="n">
+      <c r="I3" s="169" t="n">
         <v>43983</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="166"/>
-      <c r="B4" s="162" t="s">
+      <c r="A4" s="167"/>
+      <c r="B4" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="170" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="164" t="s">
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="171"/>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="169" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="164" t="s">
+      <c r="C5" s="170" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="170"/>
+      <c r="I5" s="171"/>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="172"/>
-      <c r="B6" s="162" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="168" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="164" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="170"/>
+      <c r="I6" s="171"/>
     </row>
     <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="174" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="175" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="174" t="s">
+      <c r="B8" s="176" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="175" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="176" t="s">
+      <c r="F8" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="170"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="171"/>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="174" t="s">
+      <c r="A9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="175" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="178" t="s">
-        <v>418</v>
-      </c>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="170"/>
+      <c r="F9" s="179" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="171"/>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="175" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="180" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="182" t="s">
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="182"/>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="174" t="s">
-        <v>419</v>
-      </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="185" t="s">
-        <v>447</v>
-      </c>
-      <c r="H11" s="186"/>
-      <c r="I11" s="187"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="175" t="s">
+        <v>426</v>
+      </c>
+      <c r="F11" s="175"/>
+      <c r="G11" s="186" t="s">
+        <v>454</v>
+      </c>
+      <c r="H11" s="187"/>
+      <c r="I11" s="188"/>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="176" t="s">
-        <v>448</v>
-      </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="170"/>
+      <c r="B12" s="177" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="171"/>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="174" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="189" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="190" t="s">
+      <c r="C14" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="191"/>
-      <c r="E14" s="190" t="s">
+      <c r="D14" s="192"/>
+      <c r="E14" s="191" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="191"/>
-      <c r="G14" s="192" t="s">
+      <c r="F14" s="192"/>
+      <c r="G14" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="H14" s="192"/>
-      <c r="I14" s="191"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="192"/>
     </row>
     <row r="15" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="193" t="s">
+      <c r="D15" s="195"/>
+      <c r="E15" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="194"/>
-      <c r="G15" s="193" t="s">
+      <c r="F15" s="195"/>
+      <c r="G15" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="195"/>
-      <c r="I15" s="194"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="195"/>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="241"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="194"/>
+      <c r="A16" s="197"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="174" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="175" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="199" t="s">
         <v>247</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="194"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="195"/>
     </row>
     <row r="19" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="200" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="179" t="s">
+      <c r="B19" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="225" t="s">
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="201" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="226" t="s">
+      <c r="F19" s="202" t="s">
         <v>228</v>
       </c>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="170"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="171"/>
     </row>
     <row r="20" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="224" t="s">
+      <c r="A20" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="227" t="s">
+      <c r="B20" s="203" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="228"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="192" t="s">
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="191"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="192"/>
     </row>
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="227" t="s">
+      <c r="A21" s="203" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="202" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="230" t="s">
+      <c r="C21" s="178"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="206" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="170"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="171"/>
     </row>
     <row r="22" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="227" t="s">
+      <c r="A22" s="203" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="226" t="s">
+      <c r="B22" s="202" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="177" t="s">
+      <c r="C22" s="178"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="170"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="171"/>
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="227" t="s">
+      <c r="A23" s="203" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="202" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="177"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="177" t="s">
+      <c r="C23" s="178"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="178" t="s">
         <v>238</v>
       </c>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="194"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="195"/>
     </row>
     <row r="24" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="162" t="s">
+      <c r="A24" s="163" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="195"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="194"/>
+      <c r="B24" s="178" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" s="178"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="195"/>
     </row>
     <row r="25" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="233" t="s">
+      <c r="A25" s="210" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="234"/>
-      <c r="C25" s="234"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="234"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="235"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="212"/>
     </row>
     <row r="26" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="233"/>
-      <c r="B26" s="234"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="235"/>
+      <c r="A26" s="210"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="212"/>
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="233" t="n">
+      <c r="A27" s="210" t="n">
         <v>1</v>
       </c>
-      <c r="B27" s="238" t="s">
-        <v>450</v>
-      </c>
-      <c r="C27" s="238"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="234"/>
-      <c r="H27" s="234"/>
-      <c r="I27" s="235"/>
+      <c r="B27" s="215" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="212"/>
     </row>
     <row r="28" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="233"/>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="234"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="235"/>
+      <c r="A28" s="210"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="212"/>
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="233" t="n">
+      <c r="A29" s="210" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="238" t="s">
-        <v>451</v>
-      </c>
-      <c r="C29" s="238"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="235"/>
+      <c r="B29" s="215" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="212"/>
     </row>
     <row r="30" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="233"/>
-      <c r="B30" s="234"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="234"/>
-      <c r="H30" s="234"/>
-      <c r="I30" s="235"/>
+      <c r="A30" s="210"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
     </row>
     <row r="31" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="233" t="n">
+      <c r="A31" s="210" t="n">
         <v>3</v>
       </c>
-      <c r="B31" s="236" t="s">
-        <v>397</v>
-      </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="234"/>
-      <c r="I31" s="235"/>
+      <c r="B31" s="213" t="s">
+        <v>405</v>
+      </c>
+      <c r="C31" s="211"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="212"/>
     </row>
     <row r="32" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="233"/>
-      <c r="B32" s="234"/>
-      <c r="C32" s="236" t="s">
-        <v>452</v>
-      </c>
-      <c r="D32" s="234"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="235"/>
+      <c r="A32" s="210"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="213" t="s">
+        <v>459</v>
+      </c>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="212"/>
     </row>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="233"/>
-      <c r="B33" s="237"/>
-      <c r="C33" s="236" t="s">
-        <v>453</v>
-      </c>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="234"/>
-      <c r="I33" s="235"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="213" t="s">
+        <v>460</v>
+      </c>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="212"/>
     </row>
     <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="233"/>
-      <c r="B34" s="237"/>
-      <c r="C34" s="236" t="s">
-        <v>372</v>
-      </c>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="235"/>
+      <c r="A34" s="210"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="213" t="s">
+        <v>461</v>
+      </c>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="212"/>
     </row>
     <row r="35" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="233"/>
-      <c r="B35" s="237"/>
-      <c r="C35" s="236" t="s">
-        <v>304</v>
-      </c>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="234"/>
-      <c r="G35" s="234"/>
-      <c r="H35" s="234"/>
-      <c r="I35" s="235"/>
+      <c r="A35" s="210"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="213" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="212"/>
     </row>
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="233"/>
-      <c r="B36" s="236"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="234"/>
-      <c r="G36" s="234"/>
-      <c r="H36" s="234"/>
-      <c r="I36" s="235"/>
+      <c r="A36" s="210"/>
+      <c r="B36" s="213"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="212"/>
     </row>
     <row r="37" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="233" t="n">
+      <c r="A37" s="210" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="238" t="s">
-        <v>305</v>
-      </c>
-      <c r="C37" s="238"/>
-      <c r="D37" s="238"/>
-      <c r="E37" s="238"/>
-      <c r="F37" s="234"/>
-      <c r="G37" s="234"/>
-      <c r="H37" s="234"/>
-      <c r="I37" s="235"/>
+      <c r="B37" s="215" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="212"/>
     </row>
     <row r="38" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="230"/>
-      <c r="B38" s="238"/>
-      <c r="C38" s="236" t="s">
-        <v>373</v>
-      </c>
-      <c r="D38" s="234"/>
-      <c r="E38" s="234"/>
-      <c r="F38" s="234"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="235"/>
+      <c r="A38" s="206"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="213" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="212"/>
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="230"/>
-      <c r="B39" s="238"/>
-      <c r="C39" s="238"/>
-      <c r="D39" s="238"/>
-      <c r="E39" s="238"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="235"/>
+      <c r="A39" s="206"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="211"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="212"/>
     </row>
     <row r="40" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="233"/>
-      <c r="B40" s="238" t="s">
-        <v>401</v>
-      </c>
-      <c r="C40" s="238"/>
-      <c r="D40" s="238"/>
-      <c r="E40" s="238"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="235"/>
+      <c r="A40" s="210"/>
+      <c r="B40" s="215" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="215"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="212"/>
     </row>
     <row r="41" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="233"/>
-      <c r="B41" s="238"/>
-      <c r="C41" s="236" t="s">
-        <v>402</v>
-      </c>
-      <c r="D41" s="234"/>
-      <c r="E41" s="234"/>
-      <c r="F41" s="234"/>
-      <c r="G41" s="234"/>
-      <c r="H41" s="234"/>
-      <c r="I41" s="235"/>
+      <c r="A41" s="210"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="213" t="s">
+        <v>410</v>
+      </c>
+      <c r="D41" s="211"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="211"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="211"/>
+      <c r="I41" s="212"/>
     </row>
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="233"/>
-      <c r="B42" s="234"/>
-      <c r="C42" s="234"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="234"/>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="235"/>
+      <c r="A42" s="210"/>
+      <c r="B42" s="211"/>
+      <c r="C42" s="211"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="211"/>
+      <c r="F42" s="211"/>
+      <c r="G42" s="211"/>
+      <c r="H42" s="211"/>
+      <c r="I42" s="212"/>
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="239"/>
-      <c r="B43" s="232"/>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
-      <c r="H43" s="232"/>
-      <c r="I43" s="240"/>
+      <c r="A43" s="216"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="208"/>
+      <c r="F43" s="208"/>
+      <c r="G43" s="208"/>
+      <c r="H43" s="208"/>
+      <c r="I43" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="11">
